--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2478101.680088755</v>
+        <v>-2478735.213152761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5817580.307625518</v>
+        <v>5817580.307625514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.783677460805222</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>41.26231444057959</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>36.34384655926249</v>
+      </c>
+      <c r="Y11" t="n">
         <v>41.26231444057959</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>41.26231444057959</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.783677460805219</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>36.34384655926247</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.63308528749434</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>41.26231444057959</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>41.26231444057959</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.783677460805222</v>
+        <v>2.783677460805267</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.71076127176806</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>36.34384655926249</v>
       </c>
     </row>
     <row r="15">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>34.92498224127388</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>11.04323924461937</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>17.08582593541097</v>
+        <v>32.31665392507671</v>
       </c>
       <c r="F17" t="n">
         <v>41.26231444057959</v>
       </c>
       <c r="G17" t="n">
-        <v>41.26231444057959</v>
+        <v>33.76827501200781</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.177760551738743</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>20.62045615814657</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.92498224127377</v>
+        <v>34.92498224127388</v>
       </c>
       <c r="C20" t="n">
-        <v>11.04323924461926</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>32.31665392507671</v>
       </c>
       <c r="F20" t="n">
-        <v>4.20215833835903</v>
+        <v>24.19105809848062</v>
       </c>
       <c r="G20" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.177760551738611</v>
+        <v>8.177760551738725</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>20.62045615814657</v>
+        <v>20.62045615814668</v>
       </c>
       <c r="Y20" t="n">
         <v>41.26231444057959</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.92498224127377</v>
+        <v>34.92498224127388</v>
       </c>
       <c r="C23" t="n">
-        <v>11.04323924461926</v>
+        <v>11.04323924461937</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>32.31665392507659</v>
+        <v>32.31665392507671</v>
       </c>
       <c r="F23" t="n">
-        <v>64.03699150345392</v>
+        <v>64.03699150345403</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89647228960858</v>
+        <v>73.89647228960895</v>
       </c>
       <c r="H23" t="n">
-        <v>8.177760551738629</v>
+        <v>8.177760551738743</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>20.62045615814657</v>
+        <v>20.62045615814668</v>
       </c>
       <c r="Y23" t="n">
-        <v>43.12330928189033</v>
+        <v>43.12330928189044</v>
       </c>
     </row>
     <row r="24">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>136.863027439964</v>
+        <v>136.8630274399641</v>
       </c>
       <c r="C26" t="n">
-        <v>112.9812844433095</v>
+        <v>112.9812844433096</v>
       </c>
       <c r="D26" t="n">
-        <v>100.547946704358</v>
+        <v>100.5479467043581</v>
       </c>
       <c r="E26" t="n">
-        <v>134.2546991237669</v>
+        <v>134.254699123767</v>
       </c>
       <c r="F26" t="n">
-        <v>165.9750367021442</v>
+        <v>165.9750367021443</v>
       </c>
       <c r="G26" t="n">
         <v>181.6450714691584</v>
       </c>
       <c r="H26" t="n">
-        <v>110.1158057504289</v>
+        <v>110.115805750429</v>
       </c>
       <c r="I26" t="n">
-        <v>4.984980237032516</v>
+        <v>4.984980237032602</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>12.92881747033078</v>
+        <v>12.92881747033087</v>
       </c>
       <c r="V26" t="n">
-        <v>83.65557067128273</v>
+        <v>83.65557067128282</v>
       </c>
       <c r="W26" t="n">
-        <v>100.6722508878976</v>
+        <v>100.6722508878977</v>
       </c>
       <c r="X26" t="n">
-        <v>122.5585013568368</v>
+        <v>122.5585013568369</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.0613544805806</v>
+        <v>145.0613544805807</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004951696536680723</v>
+        <v>0.004951696536765988</v>
       </c>
       <c r="V27" t="n">
-        <v>3.424707977532961</v>
+        <v>3.424707977533046</v>
       </c>
       <c r="W27" t="n">
-        <v>29.48037063914231</v>
+        <v>29.48037063914239</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.43310524103625</v>
+        <v>51.43310524103634</v>
       </c>
       <c r="V28" t="n">
-        <v>7.88480224658062</v>
+        <v>7.884802246580705</v>
       </c>
       <c r="W28" t="n">
-        <v>53.08649415146604</v>
+        <v>53.08649415146613</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>136.863027439964</v>
       </c>
       <c r="C32" t="n">
-        <v>112.9812844433094</v>
+        <v>112.9812844433095</v>
       </c>
       <c r="D32" t="n">
-        <v>100.5479467043579</v>
+        <v>100.547946704358</v>
       </c>
       <c r="E32" t="n">
-        <v>134.2546991237668</v>
+        <v>134.2546991237669</v>
       </c>
       <c r="F32" t="n">
-        <v>165.9750367021441</v>
+        <v>165.9750367021442</v>
       </c>
       <c r="G32" t="n">
-        <v>181.6450714691583</v>
+        <v>181.6450714691584</v>
       </c>
       <c r="H32" t="n">
-        <v>110.1158057504288</v>
+        <v>110.1158057504289</v>
       </c>
       <c r="I32" t="n">
-        <v>4.984980237032431</v>
+        <v>4.984980237032516</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>12.9288174703307</v>
+        <v>12.92881747033078</v>
       </c>
       <c r="V32" t="n">
-        <v>83.65557067128265</v>
+        <v>83.65557067128273</v>
       </c>
       <c r="W32" t="n">
-        <v>100.6722508878975</v>
+        <v>100.6722508878976</v>
       </c>
       <c r="X32" t="n">
         <v>122.5585013568368</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.0613544805805</v>
+        <v>145.0613544805806</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004951696536595458</v>
+        <v>0.004951696536680723</v>
       </c>
       <c r="V33" t="n">
-        <v>3.424707977532876</v>
+        <v>3.424707977532961</v>
       </c>
       <c r="W33" t="n">
-        <v>29.48037063914222</v>
+        <v>29.48037063914231</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.43310524103617</v>
+        <v>51.43310524103625</v>
       </c>
       <c r="V34" t="n">
-        <v>7.884802246580534</v>
+        <v>7.88480224658062</v>
       </c>
       <c r="W34" t="n">
-        <v>53.08649415146596</v>
+        <v>53.08649415146604</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>123.9342099696333</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0524669729788</v>
+        <v>100.0524669729787</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61912923402724</v>
+        <v>87.61912923402721</v>
       </c>
       <c r="E35" t="n">
         <v>121.3258816534361</v>
@@ -3281,7 +3281,7 @@
         <v>168.7162539988276</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18698828009815</v>
+        <v>97.18698828009812</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.72675320095198</v>
+        <v>70.72675320095195</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74343341756685</v>
+        <v>87.74343341756682</v>
       </c>
       <c r="X35" t="n">
         <v>109.6296838865061</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55155316881155</v>
+        <v>16.55155316881152</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.5042877707055</v>
+        <v>38.50428777070547</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15767668113529</v>
+        <v>40.15767668113526</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>123.9342099696333</v>
       </c>
       <c r="C38" t="n">
-        <v>100.0524669729788</v>
+        <v>100.0524669729787</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61912923402724</v>
+        <v>87.61912923402721</v>
       </c>
       <c r="E38" t="n">
         <v>121.3258816534361</v>
@@ -3518,7 +3518,7 @@
         <v>168.7162539988276</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18698828009815</v>
+        <v>97.18698828009812</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72675320095198</v>
+        <v>70.72675320095195</v>
       </c>
       <c r="W38" t="n">
-        <v>87.74343341756685</v>
+        <v>87.74343341756682</v>
       </c>
       <c r="X38" t="n">
         <v>109.6296838865061</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.55155316881155</v>
+        <v>16.55155316881152</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.5042877707055</v>
+        <v>38.50428777070547</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15767668113529</v>
+        <v>40.15767668113526</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>123.9342099696333</v>
+        <v>123.9342099696332</v>
       </c>
       <c r="C41" t="n">
         <v>100.0524669729787</v>
       </c>
       <c r="D41" t="n">
-        <v>87.61912923402721</v>
+        <v>87.61912923402713</v>
       </c>
       <c r="E41" t="n">
-        <v>121.3258816534361</v>
+        <v>121.325881653436</v>
       </c>
       <c r="F41" t="n">
-        <v>153.0462192318134</v>
+        <v>153.0462192318133</v>
       </c>
       <c r="G41" t="n">
-        <v>168.7162539988276</v>
+        <v>168.7162539988275</v>
       </c>
       <c r="H41" t="n">
-        <v>97.18698828009812</v>
+        <v>97.18698828009803</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>70.72675320095195</v>
+        <v>70.72675320095186</v>
       </c>
       <c r="W41" t="n">
-        <v>87.74343341756682</v>
+        <v>87.74343341756673</v>
       </c>
       <c r="X41" t="n">
-        <v>109.6296838865061</v>
+        <v>109.629683886506</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.1325370102498</v>
+        <v>132.1325370102497</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>16.55155316881152</v>
+        <v>16.55155316881144</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.50428777070547</v>
+        <v>38.50428777070538</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>40.15767668113526</v>
+        <v>40.15767668113517</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>128.3383016418512</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="C11" t="n">
-        <v>86.65919614631625</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="D11" t="n">
-        <v>86.65919614631625</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="E11" t="n">
-        <v>44.98009065078131</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="F11" t="n">
-        <v>44.98009065078131</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="G11" t="n">
         <v>3.300985155246367</v>
@@ -5042,16 +5042,16 @@
         <v>39.38202875732912</v>
       </c>
       <c r="K11" t="n">
-        <v>39.38202875732912</v>
+        <v>44.04627243589501</v>
       </c>
       <c r="L11" t="n">
-        <v>73.08032007803337</v>
+        <v>84.89596373206879</v>
       </c>
       <c r="M11" t="n">
-        <v>83.34987516997077</v>
+        <v>95.1655188240062</v>
       </c>
       <c r="N11" t="n">
-        <v>124.1995664661446</v>
+        <v>136.01521012018</v>
       </c>
       <c r="O11" t="n">
         <v>165.0492577623183</v>
@@ -5075,16 +5075,16 @@
         <v>165.0492577623183</v>
       </c>
       <c r="V11" t="n">
-        <v>165.0492577623183</v>
+        <v>123.3701522667834</v>
       </c>
       <c r="W11" t="n">
-        <v>128.3383016418512</v>
+        <v>123.3701522667834</v>
       </c>
       <c r="X11" t="n">
-        <v>128.3383016418512</v>
+        <v>86.65919614631625</v>
       </c>
       <c r="Y11" t="n">
-        <v>128.3383016418512</v>
+        <v>44.98009065078131</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.15067645142015</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="C12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="D12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="E12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="F12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="G12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="H12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="I12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="J12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="K12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="L12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="M12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="N12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="O12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="P12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="R12" t="n">
-        <v>72.24630002143202</v>
+        <v>39.03943887064433</v>
       </c>
       <c r="S12" t="n">
         <v>72.24630002143202</v>
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.300985155246367</v>
+        <v>15.0065571051949</v>
       </c>
       <c r="C13" t="n">
-        <v>3.300985155246367</v>
+        <v>15.0065571051949</v>
       </c>
       <c r="D13" t="n">
-        <v>3.300985155246367</v>
+        <v>55.85624840136869</v>
       </c>
       <c r="E13" t="n">
-        <v>44.15067645142015</v>
+        <v>55.85624840136869</v>
       </c>
       <c r="F13" t="n">
-        <v>44.15067645142015</v>
+        <v>55.85624840136869</v>
       </c>
       <c r="G13" t="n">
-        <v>44.15067645142015</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="H13" t="n">
-        <v>44.15067645142015</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="I13" t="n">
-        <v>44.15067645142015</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="J13" t="n">
-        <v>44.15067645142015</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="K13" t="n">
-        <v>76.017310891935</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="L13" t="n">
-        <v>76.017310891935</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="M13" t="n">
-        <v>76.017310891935</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="N13" t="n">
-        <v>76.017310891935</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="O13" t="n">
-        <v>76.017310891935</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="P13" t="n">
-        <v>76.017310891935</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.8670021881088</v>
+        <v>94.09116171604741</v>
       </c>
       <c r="R13" t="n">
-        <v>116.8670021881088</v>
+        <v>115.2621304707226</v>
       </c>
       <c r="S13" t="n">
-        <v>106.5245961948192</v>
+        <v>104.919724477433</v>
       </c>
       <c r="T13" t="n">
         <v>106.5245961948192</v>
@@ -5239,10 +5239,10 @@
         <v>3.300985155246367</v>
       </c>
       <c r="X13" t="n">
-        <v>3.300985155246367</v>
+        <v>6.788570746153948</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.300985155246367</v>
+        <v>15.0065571051949</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>86.65919614631625</v>
       </c>
       <c r="C14" t="n">
-        <v>44.98009065078131</v>
+        <v>86.65919614631625</v>
       </c>
       <c r="D14" t="n">
-        <v>44.98009065078131</v>
+        <v>86.65919614631625</v>
       </c>
       <c r="E14" t="n">
-        <v>44.98009065078131</v>
+        <v>86.65919614631625</v>
       </c>
       <c r="F14" t="n">
         <v>44.98009065078131</v>
@@ -5276,22 +5276,22 @@
         <v>3.300985155246367</v>
       </c>
       <c r="J14" t="n">
-        <v>3.300985155246367</v>
+        <v>39.38202875732912</v>
       </c>
       <c r="K14" t="n">
-        <v>44.15067645142015</v>
+        <v>44.04627243589501</v>
       </c>
       <c r="L14" t="n">
-        <v>85.00036774759394</v>
+        <v>44.04627243589501</v>
       </c>
       <c r="M14" t="n">
-        <v>95.16844086386682</v>
+        <v>84.89596373206879</v>
       </c>
       <c r="N14" t="n">
-        <v>136.0181321600406</v>
+        <v>116.2715267024755</v>
       </c>
       <c r="O14" t="n">
-        <v>165.0492577623183</v>
+        <v>124.1995664661446</v>
       </c>
       <c r="P14" t="n">
         <v>165.0492577623183</v>
@@ -5303,25 +5303,25 @@
         <v>165.0492577623183</v>
       </c>
       <c r="S14" t="n">
-        <v>162.2374623473636</v>
+        <v>162.2374623473635</v>
       </c>
       <c r="T14" t="n">
-        <v>165.0492577623184</v>
+        <v>165.0492577623183</v>
       </c>
       <c r="U14" t="n">
-        <v>140.0888928413405</v>
+        <v>165.0492577623183</v>
       </c>
       <c r="V14" t="n">
-        <v>98.40978734580548</v>
+        <v>165.0492577623183</v>
       </c>
       <c r="W14" t="n">
-        <v>98.40978734580548</v>
+        <v>165.0492577623183</v>
       </c>
       <c r="X14" t="n">
-        <v>98.40978734580548</v>
+        <v>165.0492577623183</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.40978734580548</v>
+        <v>128.3383016418512</v>
       </c>
     </row>
     <row r="15">
@@ -5343,22 +5343,22 @@
         <v>3.300985155246367</v>
       </c>
       <c r="F15" t="n">
-        <v>3.300985155246367</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="G15" t="n">
-        <v>31.39660872525823</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="H15" t="n">
-        <v>31.39660872525823</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="I15" t="n">
-        <v>31.39660872525823</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="J15" t="n">
-        <v>72.24630002143202</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="K15" t="n">
-        <v>72.24630002143202</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="L15" t="n">
         <v>72.24630002143202</v>
@@ -5416,31 +5416,31 @@
         <v>3.300985155246367</v>
       </c>
       <c r="D16" t="n">
-        <v>44.15067645142015</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="E16" t="n">
-        <v>44.15067645142015</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="F16" t="n">
-        <v>44.15067645142015</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="G16" t="n">
         <v>44.15067645142015</v>
       </c>
       <c r="H16" t="n">
-        <v>76.017310891935</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="I16" t="n">
-        <v>116.8670021881088</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="J16" t="n">
-        <v>116.8670021881088</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="K16" t="n">
-        <v>116.8670021881088</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="L16" t="n">
-        <v>116.8670021881088</v>
+        <v>85.00036774759394</v>
       </c>
       <c r="M16" t="n">
         <v>116.8670021881088</v>
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.541408672696</v>
+        <v>129.7714979226478</v>
       </c>
       <c r="C17" t="n">
-        <v>102.541408672696</v>
+        <v>118.6167108068706</v>
       </c>
       <c r="D17" t="n">
-        <v>103.9176061820849</v>
+        <v>119.9929083162594</v>
       </c>
       <c r="E17" t="n">
-        <v>86.65919614631625</v>
+        <v>87.3498235434547</v>
       </c>
       <c r="F17" t="n">
-        <v>44.98009065078131</v>
+        <v>45.67071804791976</v>
       </c>
       <c r="G17" t="n">
-        <v>3.300985155246367</v>
+        <v>11.56134934892187</v>
       </c>
       <c r="H17" t="n">
         <v>3.300985155246367</v>
       </c>
       <c r="I17" t="n">
-        <v>42.50018387379698</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="J17" t="n">
-        <v>42.50018387379698</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="K17" t="n">
-        <v>42.50018387379698</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="L17" t="n">
-        <v>83.34987516997077</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="M17" t="n">
-        <v>124.1995664661446</v>
+        <v>3.300985155246367</v>
       </c>
       <c r="N17" t="n">
-        <v>165.0492577623183</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="O17" t="n">
-        <v>165.0492577623183</v>
+        <v>65.25022538783742</v>
       </c>
       <c r="P17" t="n">
-        <v>165.0492577623183</v>
+        <v>106.0999166840112</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.0492577623183</v>
+        <v>106.0999166840112</v>
       </c>
       <c r="R17" t="n">
-        <v>165.0492577623183</v>
+        <v>106.0999166840112</v>
       </c>
       <c r="S17" t="n">
-        <v>165.0492577623183</v>
+        <v>106.0999166840112</v>
       </c>
       <c r="T17" t="n">
-        <v>165.0492577623183</v>
+        <v>106.0999166840112</v>
       </c>
       <c r="U17" t="n">
-        <v>165.0492577623183</v>
+        <v>146.949607980185</v>
       </c>
       <c r="V17" t="n">
         <v>165.0492577623183</v>
@@ -5555,10 +5555,10 @@
         <v>165.0492577623183</v>
       </c>
       <c r="X17" t="n">
-        <v>144.2205141682309</v>
+        <v>165.0492577623183</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.541408672696</v>
+        <v>165.0492577623183</v>
       </c>
     </row>
     <row r="18">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.26364883302561</v>
+        <v>67.26364883302529</v>
       </c>
       <c r="C20" t="n">
-        <v>56.10886171724859</v>
+        <v>67.26364883302529</v>
       </c>
       <c r="D20" t="n">
-        <v>57.48505922663752</v>
+        <v>68.6398463424141</v>
       </c>
       <c r="E20" t="n">
-        <v>57.48505922663752</v>
+        <v>35.99676156960936</v>
       </c>
       <c r="F20" t="n">
-        <v>53.24045484445668</v>
+        <v>11.56134934892186</v>
       </c>
       <c r="G20" t="n">
-        <v>11.56134934892173</v>
+        <v>11.56134934892186</v>
       </c>
       <c r="H20" t="n">
         <v>3.300985155246367</v>
       </c>
       <c r="I20" t="n">
-        <v>42.50018387379698</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="J20" t="n">
-        <v>42.50018387379698</v>
+        <v>44.15067645142015</v>
       </c>
       <c r="K20" t="n">
-        <v>42.50018387379698</v>
+        <v>63.9970890201528</v>
       </c>
       <c r="L20" t="n">
-        <v>42.50018387379698</v>
+        <v>63.9970890201528</v>
       </c>
       <c r="M20" t="n">
-        <v>42.50018387379698</v>
+        <v>63.9970890201528</v>
       </c>
       <c r="N20" t="n">
-        <v>42.50018387379698</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="O20" t="n">
-        <v>83.34987516997077</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="P20" t="n">
-        <v>83.34987516997077</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.34987516997077</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="R20" t="n">
-        <v>83.34987516997077</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="S20" t="n">
-        <v>83.34987516997077</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="T20" t="n">
-        <v>124.1995664661446</v>
+        <v>104.8467803163266</v>
       </c>
       <c r="U20" t="n">
-        <v>165.0492577623183</v>
+        <v>145.6964716125004</v>
       </c>
       <c r="V20" t="n">
-        <v>165.0492577623183</v>
+        <v>163.7961213946337</v>
       </c>
       <c r="W20" t="n">
         <v>165.0492577623183</v>
       </c>
       <c r="X20" t="n">
-        <v>144.220514168231</v>
+        <v>144.2205141682308</v>
       </c>
       <c r="Y20" t="n">
-        <v>102.5414086726961</v>
+        <v>102.5414086726959</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>195.9204874601407</v>
+        <v>195.9204874601419</v>
       </c>
       <c r="C23" t="n">
-        <v>184.7657003443637</v>
+        <v>184.7657003443647</v>
       </c>
       <c r="D23" t="n">
-        <v>186.1418978537527</v>
+        <v>186.1418978537536</v>
       </c>
       <c r="E23" t="n">
-        <v>153.498813080948</v>
+        <v>153.4988130809488</v>
       </c>
       <c r="F23" t="n">
-        <v>88.81498327947941</v>
+        <v>88.81498327948009</v>
       </c>
       <c r="G23" t="n">
-        <v>14.17208197684407</v>
+        <v>14.17208197684421</v>
       </c>
       <c r="H23" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="I23" t="n">
-        <v>5.911717783168687</v>
+        <v>79.06922534988158</v>
       </c>
       <c r="J23" t="n">
-        <v>5.911717783168687</v>
+        <v>79.06922534988158</v>
       </c>
       <c r="K23" t="n">
-        <v>5.911717783168687</v>
+        <v>149.2708740250101</v>
       </c>
       <c r="L23" t="n">
-        <v>5.911717783168687</v>
+        <v>149.2708740250101</v>
       </c>
       <c r="M23" t="n">
-        <v>5.911717783168687</v>
+        <v>149.2708740250101</v>
       </c>
       <c r="N23" t="n">
-        <v>5.911717783168687</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="O23" t="n">
-        <v>5.911717783168687</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="P23" t="n">
-        <v>5.911717783168687</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.76058030847864</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="R23" t="n">
-        <v>56.76058030847864</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="S23" t="n">
-        <v>129.9180878751911</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="T23" t="n">
-        <v>203.0755954419036</v>
+        <v>222.4283815917229</v>
       </c>
       <c r="U23" t="n">
-        <v>276.2331030086161</v>
+        <v>295.5858891584358</v>
       </c>
       <c r="V23" t="n">
-        <v>294.3327527907496</v>
+        <v>295.5858891584358</v>
       </c>
       <c r="W23" t="n">
-        <v>295.5858891584343</v>
+        <v>295.5858891584358</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7571455643469</v>
+        <v>274.7571455643483</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.1982472998112</v>
+        <v>231.1982472998125</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="C24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="D24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="E24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="F24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="G24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="H24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="I24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="J24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="K24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="L24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="M24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="N24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="O24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="P24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="R24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="S24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="T24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="U24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="V24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="W24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="X24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="C25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="D25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="E25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="F25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="G25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="H25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="I25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="J25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="K25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="L25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="M25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="N25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="O25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="P25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="R25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="S25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="T25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="U25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="V25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="W25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="X25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.911717783168687</v>
+        <v>5.911717783168716</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>847.8041794231458</v>
+        <v>847.8041794231472</v>
       </c>
       <c r="C26" t="n">
-        <v>733.6816698844492</v>
+        <v>733.6816698844502</v>
       </c>
       <c r="D26" t="n">
-        <v>632.1180873547946</v>
+        <v>632.1180873547955</v>
       </c>
       <c r="E26" t="n">
-        <v>496.5072801590705</v>
+        <v>496.5072801590713</v>
       </c>
       <c r="F26" t="n">
-        <v>328.8557279346825</v>
+        <v>328.8557279346831</v>
       </c>
       <c r="G26" t="n">
-        <v>145.3758577638155</v>
+        <v>145.375857763816</v>
       </c>
       <c r="H26" t="n">
-        <v>34.14777114722087</v>
+        <v>34.14777114722099</v>
       </c>
       <c r="I26" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="J26" t="n">
-        <v>29.11243757446075</v>
+        <v>185.3364661051551</v>
       </c>
       <c r="K26" t="n">
-        <v>253.3865706891032</v>
+        <v>409.6105992197975</v>
       </c>
       <c r="L26" t="n">
-        <v>526.2436430360292</v>
+        <v>686.3228894427798</v>
       </c>
       <c r="M26" t="n">
-        <v>836.5492444977115</v>
+        <v>844.1047387561102</v>
       </c>
       <c r="N26" t="n">
-        <v>906.3813577622195</v>
+        <v>1148.788822829109</v>
       </c>
       <c r="O26" t="n">
-        <v>1170.264454172988</v>
+        <v>1177.819948431387</v>
       </c>
       <c r="P26" t="n">
-        <v>1385.746246408789</v>
+        <v>1249.541933600648</v>
       </c>
       <c r="Q26" t="n">
-        <v>1392.253195612786</v>
+        <v>1392.253195612788</v>
       </c>
       <c r="R26" t="n">
-        <v>1432.237675267434</v>
+        <v>1432.237675267436</v>
       </c>
       <c r="S26" t="n">
-        <v>1441.14595894466</v>
+        <v>1441.145958944662</v>
       </c>
       <c r="T26" t="n">
-        <v>1455.621878723037</v>
+        <v>1455.621878723039</v>
       </c>
       <c r="U26" t="n">
-        <v>1442.562467136845</v>
+        <v>1442.562467136846</v>
       </c>
       <c r="V26" t="n">
-        <v>1358.061890701205</v>
+        <v>1358.061890701207</v>
       </c>
       <c r="W26" t="n">
-        <v>1256.372748390198</v>
+        <v>1256.372748390199</v>
       </c>
       <c r="X26" t="n">
-        <v>1132.576282373191</v>
+        <v>1132.576282373192</v>
       </c>
       <c r="Y26" t="n">
-        <v>986.0496616857357</v>
+        <v>986.0496616857372</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="C27" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="D27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="E27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="F27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="G27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="H27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="I27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="J27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="K27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="L27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="M27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="N27" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="O27" t="n">
-        <v>62.354892436291</v>
+        <v>62.3548924362913</v>
       </c>
       <c r="P27" t="n">
-        <v>62.354892436291</v>
+        <v>62.3548924362913</v>
       </c>
       <c r="Q27" t="n">
-        <v>62.354892436291</v>
+        <v>62.3548924362913</v>
       </c>
       <c r="R27" t="n">
-        <v>62.354892436291</v>
+        <v>62.3548924362913</v>
       </c>
       <c r="S27" t="n">
-        <v>62.354892436291</v>
+        <v>62.3548924362913</v>
       </c>
       <c r="T27" t="n">
-        <v>62.354892436291</v>
+        <v>62.3548924362913</v>
       </c>
       <c r="U27" t="n">
-        <v>62.34989072261759</v>
+        <v>62.3498907226178</v>
       </c>
       <c r="V27" t="n">
-        <v>58.89058973521055</v>
+        <v>58.89058973521068</v>
       </c>
       <c r="W27" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="X27" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="C28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="D28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="E28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="F28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="G28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="I28" t="n">
-        <v>29.11243757446075</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="J28" t="n">
-        <v>29.11243757446075</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="K28" t="n">
-        <v>29.11243757446075</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="L28" t="n">
-        <v>142.652237209898</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="M28" t="n">
-        <v>142.652237209898</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="N28" t="n">
-        <v>142.652237209898</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="O28" t="n">
-        <v>142.652237209898</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="P28" t="n">
-        <v>142.652237209898</v>
+        <v>34.90198139824328</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.652237209898</v>
+        <v>142.6522372098983</v>
       </c>
       <c r="R28" t="n">
-        <v>142.652237209898</v>
+        <v>142.6522372098983</v>
       </c>
       <c r="S28" t="n">
-        <v>142.652237209898</v>
+        <v>142.6522372098983</v>
       </c>
       <c r="T28" t="n">
-        <v>142.652237209898</v>
+        <v>142.6522372098983</v>
       </c>
       <c r="U28" t="n">
-        <v>90.69960565329575</v>
+        <v>90.69960565329598</v>
       </c>
       <c r="V28" t="n">
-        <v>82.73515893957796</v>
+        <v>82.73515893957808</v>
       </c>
       <c r="W28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="X28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.11243757446075</v>
+        <v>29.11243757446078</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>847.8041794231458</v>
+        <v>847.8041794231457</v>
       </c>
       <c r="C29" t="n">
         <v>733.6816698844492</v>
       </c>
       <c r="D29" t="n">
-        <v>632.1180873547949</v>
+        <v>632.1180873547946</v>
       </c>
       <c r="E29" t="n">
         <v>496.5072801590707</v>
       </c>
       <c r="F29" t="n">
-        <v>328.8557279346825</v>
+        <v>328.8557279346828</v>
       </c>
       <c r="G29" t="n">
-        <v>145.3758577638155</v>
+        <v>145.3758577638156</v>
       </c>
       <c r="H29" t="n">
         <v>34.14777114722087</v>
@@ -6461,31 +6461,31 @@
         <v>29.11243757446075</v>
       </c>
       <c r="J29" t="n">
-        <v>29.11243757446075</v>
+        <v>169.9976107664245</v>
       </c>
       <c r="K29" t="n">
-        <v>253.3865706891032</v>
+        <v>169.9976107664245</v>
       </c>
       <c r="L29" t="n">
-        <v>430.0238098825347</v>
+        <v>446.7099009894069</v>
       </c>
       <c r="M29" t="n">
-        <v>505.4774405357263</v>
+        <v>757.0155024510891</v>
       </c>
       <c r="N29" t="n">
-        <v>810.1615246087249</v>
+        <v>1061.699586524088</v>
       </c>
       <c r="O29" t="n">
-        <v>1074.044621019493</v>
+        <v>1258.450217277872</v>
       </c>
       <c r="P29" t="n">
-        <v>1289.526413255294</v>
+        <v>1258.450217277872</v>
       </c>
       <c r="Q29" t="n">
-        <v>1432.237675267434</v>
+        <v>1401.161479290012</v>
       </c>
       <c r="R29" t="n">
-        <v>1432.237675267434</v>
+        <v>1441.14595894466</v>
       </c>
       <c r="S29" t="n">
         <v>1441.14595894466</v>
@@ -6497,7 +6497,7 @@
         <v>1442.562467136845</v>
       </c>
       <c r="V29" t="n">
-        <v>1358.061890701206</v>
+        <v>1358.061890701205</v>
       </c>
       <c r="W29" t="n">
         <v>1256.372748390198</v>
@@ -6506,7 +6506,7 @@
         <v>1132.576282373191</v>
       </c>
       <c r="Y29" t="n">
-        <v>986.0496616857357</v>
+        <v>986.0496616857356</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>29.11243757446075</v>
       </c>
       <c r="I30" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="J30" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="K30" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="L30" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="M30" t="n">
-        <v>62.354892436291</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="N30" t="n">
         <v>62.354892436291</v>
@@ -6616,31 +6616,31 @@
         <v>29.11243757446075</v>
       </c>
       <c r="I31" t="n">
-        <v>100.3444861679245</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="J31" t="n">
-        <v>100.3444861679245</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="K31" t="n">
-        <v>100.3444861679245</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="L31" t="n">
-        <v>100.3444861679245</v>
+        <v>142.652237209898</v>
       </c>
       <c r="M31" t="n">
-        <v>100.3444861679245</v>
+        <v>142.652237209898</v>
       </c>
       <c r="N31" t="n">
-        <v>100.3444861679245</v>
+        <v>142.652237209898</v>
       </c>
       <c r="O31" t="n">
-        <v>109.8171440918</v>
+        <v>142.652237209898</v>
       </c>
       <c r="P31" t="n">
-        <v>109.8171440918</v>
+        <v>142.652237209898</v>
       </c>
       <c r="Q31" t="n">
-        <v>109.8171440918</v>
+        <v>142.652237209898</v>
       </c>
       <c r="R31" t="n">
         <v>142.652237209898</v>
@@ -6674,67 +6674,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>847.8041794231465</v>
+        <v>847.8041794231457</v>
       </c>
       <c r="C32" t="n">
-        <v>733.68166988445</v>
+        <v>733.6816698844492</v>
       </c>
       <c r="D32" t="n">
-        <v>632.1180873547955</v>
+        <v>632.1180873547946</v>
       </c>
       <c r="E32" t="n">
-        <v>496.5072801590713</v>
+        <v>496.5072801590705</v>
       </c>
       <c r="F32" t="n">
-        <v>328.8557279346833</v>
+        <v>328.8557279346825</v>
       </c>
       <c r="G32" t="n">
-        <v>145.3758577638164</v>
+        <v>145.3758577638155</v>
       </c>
       <c r="H32" t="n">
-        <v>34.14777114722078</v>
+        <v>34.14777114722087</v>
       </c>
       <c r="I32" t="n">
         <v>29.11243757446075</v>
       </c>
       <c r="J32" t="n">
-        <v>185.3364661051553</v>
+        <v>185.3364661051552</v>
       </c>
       <c r="K32" t="n">
-        <v>185.3364661051553</v>
+        <v>409.6105992197976</v>
       </c>
       <c r="L32" t="n">
-        <v>227.1967855196471</v>
+        <v>686.32288944278</v>
       </c>
       <c r="M32" t="n">
-        <v>537.5023869813294</v>
+        <v>996.6284909044623</v>
       </c>
       <c r="N32" t="n">
-        <v>842.1864710543282</v>
+        <v>1301.312574977461</v>
       </c>
       <c r="O32" t="n">
-        <v>1042.968425042071</v>
+        <v>1301.312574977461</v>
       </c>
       <c r="P32" t="n">
-        <v>1258.450217277872</v>
+        <v>1301.312574977461</v>
       </c>
       <c r="Q32" t="n">
-        <v>1401.161479290012</v>
+        <v>1392.253195612786</v>
       </c>
       <c r="R32" t="n">
-        <v>1441.145958944659</v>
+        <v>1432.237675267434</v>
       </c>
       <c r="S32" t="n">
-        <v>1441.145958944659</v>
+        <v>1441.14595894466</v>
       </c>
       <c r="T32" t="n">
         <v>1455.621878723037</v>
       </c>
       <c r="U32" t="n">
-        <v>1442.562467136845</v>
+        <v>1442.562467136844</v>
       </c>
       <c r="V32" t="n">
-        <v>1358.061890701206</v>
+        <v>1358.061890701205</v>
       </c>
       <c r="W32" t="n">
         <v>1256.372748390198</v>
@@ -6743,7 +6743,7 @@
         <v>1132.576282373191</v>
       </c>
       <c r="Y32" t="n">
-        <v>986.0496616857363</v>
+        <v>986.0496616857356</v>
       </c>
     </row>
     <row r="33">
@@ -6765,55 +6765,55 @@
         <v>29.11243757446075</v>
       </c>
       <c r="F33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="G33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="H33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="I33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="J33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="K33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="L33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="M33" t="n">
-        <v>62.35489243629075</v>
+        <v>29.11243757446075</v>
       </c>
       <c r="N33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="O33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="P33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="Q33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="R33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="S33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="T33" t="n">
-        <v>62.35489243629075</v>
+        <v>62.354892436291</v>
       </c>
       <c r="U33" t="n">
-        <v>62.34989072261742</v>
+        <v>62.34989072261759</v>
       </c>
       <c r="V33" t="n">
-        <v>58.89058973521047</v>
+        <v>58.89058973521055</v>
       </c>
       <c r="W33" t="n">
         <v>29.11243757446075</v>
@@ -6844,55 +6844,55 @@
         <v>29.11243757446075</v>
       </c>
       <c r="F34" t="n">
-        <v>29.11243757446075</v>
+        <v>71.42018861643429</v>
       </c>
       <c r="G34" t="n">
-        <v>29.11243757446075</v>
+        <v>71.42018861643429</v>
       </c>
       <c r="H34" t="n">
-        <v>29.11243757446075</v>
+        <v>71.42018861643429</v>
       </c>
       <c r="I34" t="n">
-        <v>29.11243757446075</v>
+        <v>142.652237209898</v>
       </c>
       <c r="J34" t="n">
-        <v>44.2433719684404</v>
+        <v>142.652237209898</v>
       </c>
       <c r="K34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="L34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="M34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="N34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="O34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="P34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="R34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="S34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="T34" t="n">
-        <v>142.6522372098978</v>
+        <v>142.652237209898</v>
       </c>
       <c r="U34" t="n">
-        <v>90.69960565329558</v>
+        <v>90.69960565329575</v>
       </c>
       <c r="V34" t="n">
-        <v>82.73515893957787</v>
+        <v>82.73515893957796</v>
       </c>
       <c r="W34" t="n">
         <v>29.11243757446075</v>
@@ -6917,10 +6917,10 @@
         <v>660.0482932254799</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5441222820182</v>
+        <v>571.5441222820181</v>
       </c>
       <c r="E35" t="n">
-        <v>448.9927266724868</v>
+        <v>448.9927266724867</v>
       </c>
       <c r="F35" t="n">
         <v>294.4005860342913</v>
@@ -6932,31 +6932,31 @@
         <v>25.81145241921438</v>
       </c>
       <c r="I35" t="n">
-        <v>33.67585128017963</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="J35" t="n">
-        <v>33.67585128017963</v>
+        <v>137.3324334375329</v>
       </c>
       <c r="K35" t="n">
-        <v>270.7495136904495</v>
+        <v>374.4060958478028</v>
       </c>
       <c r="L35" t="n">
-        <v>560.2613332090593</v>
+        <v>608.6368951729014</v>
       </c>
       <c r="M35" t="n">
-        <v>760.4351037928814</v>
+        <v>928.0536188606793</v>
       </c>
       <c r="N35" t="n">
-        <v>830.2672170573894</v>
+        <v>964.9704332805293</v>
       </c>
       <c r="O35" t="n">
-        <v>1106.949842763785</v>
+        <v>994.001558882807</v>
       </c>
       <c r="P35" t="n">
-        <v>1169.49887146396</v>
+        <v>1222.282880414235</v>
       </c>
       <c r="Q35" t="n">
-        <v>1188.805349963586</v>
+        <v>1241.589358913861</v>
       </c>
       <c r="R35" t="n">
         <v>1241.589358913861</v>
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="C36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="D36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="E36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="F36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="G36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="H36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="I36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="J36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="K36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="L36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="M36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="N36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="O36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="P36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53019299377151</v>
+        <v>42.53019299377148</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53019299377151</v>
+        <v>42.53019299377148</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53019299377151</v>
+        <v>42.53019299377148</v>
       </c>
       <c r="W36" t="n">
         <v>25.81145241921438</v>
@@ -7059,7 +7059,7 @@
         <v>25.81145241921438</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.53019299377151</v>
+        <v>25.81145241921438</v>
       </c>
     </row>
     <row r="37">
@@ -7072,49 +7072,49 @@
         <v>25.81145241921438</v>
       </c>
       <c r="C37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="D37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="E37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="F37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="G37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="H37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="I37" t="n">
-        <v>59.63335975482302</v>
+        <v>25.81145241921438</v>
       </c>
       <c r="J37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="K37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="L37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="M37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="N37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="O37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="P37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.63335975482302</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="R37" t="n">
         <v>105.2679821685485</v>
@@ -7126,10 +7126,10 @@
         <v>105.2679821685485</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37476219813891</v>
+        <v>66.37476219813888</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37476219813891</v>
+        <v>66.37476219813888</v>
       </c>
       <c r="W37" t="n">
         <v>25.81145241921438</v>
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.111391177983</v>
+        <v>761.1113911779831</v>
       </c>
       <c r="C38" t="n">
-        <v>660.0482932254793</v>
+        <v>660.0482932254795</v>
       </c>
       <c r="D38" t="n">
-        <v>571.5441222820174</v>
+        <v>571.5441222820177</v>
       </c>
       <c r="E38" t="n">
-        <v>448.992726672486</v>
+        <v>448.9927266724864</v>
       </c>
       <c r="F38" t="n">
-        <v>294.4005860342905</v>
+        <v>294.400586034291</v>
       </c>
       <c r="G38" t="n">
         <v>123.9801274496165</v>
       </c>
       <c r="H38" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I38" t="n">
-        <v>33.67585128017962</v>
+        <v>33.67585128017964</v>
       </c>
       <c r="J38" t="n">
-        <v>33.67585128017962</v>
+        <v>94.22054854131278</v>
       </c>
       <c r="K38" t="n">
-        <v>33.67585128017962</v>
+        <v>94.22054854131278</v>
       </c>
       <c r="L38" t="n">
-        <v>33.67585128017962</v>
+        <v>343.6914121737456</v>
       </c>
       <c r="M38" t="n">
-        <v>253.0053957262835</v>
+        <v>663.1081358615234</v>
       </c>
       <c r="N38" t="n">
-        <v>570.4890090949095</v>
+        <v>772.6215437016697</v>
       </c>
       <c r="O38" t="n">
-        <v>847.1716348013053</v>
+        <v>805.0132371243891</v>
       </c>
       <c r="P38" t="n">
-        <v>1075.452956332734</v>
+        <v>1033.294558655818</v>
       </c>
       <c r="Q38" t="n">
-        <v>1230.963747640501</v>
+        <v>1188.805349963585</v>
       </c>
       <c r="R38" t="n">
         <v>1241.58935891386</v>
       </c>
       <c r="S38" t="n">
-        <v>1263.297171886714</v>
+        <v>1263.297171886713</v>
       </c>
       <c r="T38" t="n">
-        <v>1290.572620960719</v>
+        <v>1290.572620960718</v>
       </c>
       <c r="U38" t="n">
-        <v>1290.572620960719</v>
+        <v>1290.572620960718</v>
       </c>
       <c r="V38" t="n">
         <v>1219.131456111272</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="C39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="D39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="E39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="F39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="G39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="H39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="J39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="K39" t="n">
-        <v>42.5301929937715</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="L39" t="n">
-        <v>42.5301929937715</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="M39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="N39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="O39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="P39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="R39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="S39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="T39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="U39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="V39" t="n">
-        <v>42.5301929937715</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="W39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="X39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="C40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="D40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="E40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="F40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="G40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="H40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="J40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="K40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="M40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2679821685485</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="O40" t="n">
-        <v>105.2679821685485</v>
+        <v>26.63701171976093</v>
       </c>
       <c r="P40" t="n">
-        <v>105.2679821685485</v>
+        <v>26.63701171976093</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.2679821685485</v>
+        <v>105.2679821685484</v>
       </c>
       <c r="R40" t="n">
-        <v>105.2679821685485</v>
+        <v>105.2679821685484</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2679821685485</v>
+        <v>105.2679821685484</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2679821685485</v>
+        <v>105.2679821685484</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37476219813891</v>
+        <v>66.37476219813887</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37476219813891</v>
+        <v>66.37476219813887</v>
       </c>
       <c r="W40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="X40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.1113911779833</v>
+        <v>761.1113911779835</v>
       </c>
       <c r="C41" t="n">
-        <v>660.0482932254795</v>
+        <v>660.0482932254797</v>
       </c>
       <c r="D41" t="n">
-        <v>571.5441222820177</v>
+        <v>571.544122282018</v>
       </c>
       <c r="E41" t="n">
-        <v>448.9927266724864</v>
+        <v>448.9927266724866</v>
       </c>
       <c r="F41" t="n">
-        <v>294.400586034291</v>
+        <v>294.4005860342913</v>
       </c>
       <c r="G41" t="n">
-        <v>123.9801274496165</v>
+        <v>123.9801274496164</v>
       </c>
       <c r="H41" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I41" t="n">
-        <v>25.81145241921438</v>
+        <v>33.67585128017973</v>
       </c>
       <c r="J41" t="n">
-        <v>194.8350102455363</v>
+        <v>94.22054854131295</v>
       </c>
       <c r="K41" t="n">
-        <v>431.9086726558062</v>
+        <v>94.22054854131295</v>
       </c>
       <c r="L41" t="n">
-        <v>431.9086726558062</v>
+        <v>94.22054854131295</v>
       </c>
       <c r="M41" t="n">
-        <v>668.9254727921717</v>
+        <v>413.6372722290908</v>
       </c>
       <c r="N41" t="n">
-        <v>725.9998004026769</v>
+        <v>731.120885597717</v>
       </c>
       <c r="O41" t="n">
-        <v>1002.682426109073</v>
+        <v>1007.803511304113</v>
       </c>
       <c r="P41" t="n">
-        <v>1230.963747640501</v>
+        <v>1075.452956332733</v>
       </c>
       <c r="Q41" t="n">
-        <v>1230.963747640501</v>
+        <v>1230.9637476405</v>
       </c>
       <c r="R41" t="n">
-        <v>1241.589358913861</v>
+        <v>1241.58935891386</v>
       </c>
       <c r="S41" t="n">
-        <v>1263.297171886714</v>
+        <v>1263.297171886713</v>
       </c>
       <c r="T41" t="n">
-        <v>1290.572620960719</v>
+        <v>1290.572620960718</v>
       </c>
       <c r="U41" t="n">
-        <v>1290.572620960719</v>
+        <v>1290.572620960718</v>
       </c>
       <c r="V41" t="n">
         <v>1219.131456111272</v>
       </c>
       <c r="W41" t="n">
-        <v>1130.501725386458</v>
+        <v>1130.501725386457</v>
       </c>
       <c r="X41" t="n">
         <v>1019.764670955643</v>
       </c>
       <c r="Y41" t="n">
-        <v>886.2974618543805</v>
+        <v>886.2974618543806</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="C42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="D42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="E42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="F42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="G42" t="n">
-        <v>25.81145241921438</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="H42" t="n">
-        <v>25.81145241921438</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="I42" t="n">
-        <v>25.81145241921438</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="J42" t="n">
-        <v>25.81145241921438</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="K42" t="n">
-        <v>25.81145241921438</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="L42" t="n">
-        <v>25.81145241921438</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="M42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="N42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="O42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="P42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="R42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="S42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="T42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="U42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="V42" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377138</v>
       </c>
       <c r="W42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="X42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="C43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="D43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="E43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="F43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="G43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="H43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="J43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="K43" t="n">
-        <v>97.62220106501402</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="L43" t="n">
-        <v>100.2744070970358</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="M43" t="n">
-        <v>100.2744070970358</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="N43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="O43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="P43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="Q43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="R43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="S43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="T43" t="n">
-        <v>100.2744070970358</v>
+        <v>105.2679821685483</v>
       </c>
       <c r="U43" t="n">
-        <v>61.38118712662622</v>
+        <v>66.3747621981388</v>
       </c>
       <c r="V43" t="n">
-        <v>66.37476219813888</v>
+        <v>66.3747621981388</v>
       </c>
       <c r="W43" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="X43" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.1113911779836</v>
+        <v>761.1113911779831</v>
       </c>
       <c r="C44" t="n">
-        <v>660.0482932254799</v>
+        <v>660.0482932254795</v>
       </c>
       <c r="D44" t="n">
-        <v>571.544122282018</v>
+        <v>571.5441222820175</v>
       </c>
       <c r="E44" t="n">
-        <v>448.9927266724862</v>
+        <v>448.9927266724858</v>
       </c>
       <c r="F44" t="n">
-        <v>294.4005860342909</v>
+        <v>294.4005860342904</v>
       </c>
       <c r="G44" t="n">
         <v>123.9801274496165</v>
       </c>
       <c r="H44" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I44" t="n">
-        <v>33.67585128017966</v>
+        <v>33.67585128017964</v>
       </c>
       <c r="J44" t="n">
-        <v>202.6994091065015</v>
+        <v>33.67585128017964</v>
       </c>
       <c r="K44" t="n">
-        <v>439.7730715167714</v>
+        <v>270.7495136904495</v>
       </c>
       <c r="L44" t="n">
-        <v>538.0213160415385</v>
+        <v>560.2613332090593</v>
       </c>
       <c r="M44" t="n">
-        <v>538.0213160415385</v>
+        <v>879.6780568968372</v>
       </c>
       <c r="N44" t="n">
-        <v>855.5049294101646</v>
+        <v>1197.161670265463</v>
       </c>
       <c r="O44" t="n">
-        <v>1132.18755511656</v>
+        <v>1211.657269140876</v>
       </c>
       <c r="P44" t="n">
-        <v>1241.589358913861</v>
+        <v>1211.657269140876</v>
       </c>
       <c r="Q44" t="n">
-        <v>1241.589358913861</v>
+        <v>1230.963747640501</v>
       </c>
       <c r="R44" t="n">
-        <v>1241.589358913861</v>
+        <v>1241.58935891386</v>
       </c>
       <c r="S44" t="n">
-        <v>1263.297171886714</v>
+        <v>1263.297171886713</v>
       </c>
       <c r="T44" t="n">
-        <v>1290.572620960719</v>
+        <v>1290.572620960718</v>
       </c>
       <c r="U44" t="n">
-        <v>1290.572620960719</v>
+        <v>1290.572620960718</v>
       </c>
       <c r="V44" t="n">
         <v>1219.131456111272</v>
       </c>
       <c r="W44" t="n">
-        <v>1130.501725386458</v>
+        <v>1130.501725386457</v>
       </c>
       <c r="X44" t="n">
         <v>1019.764670955643</v>
       </c>
       <c r="Y44" t="n">
-        <v>886.2974618543808</v>
+        <v>886.2974618543803</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="C45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="D45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="E45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="F45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="G45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="H45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="J45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="K45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="L45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="M45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="N45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="O45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="P45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.53019299377148</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="R45" t="n">
-        <v>42.53019299377148</v>
+        <v>29.7355658777153</v>
       </c>
       <c r="S45" t="n">
-        <v>42.53019299377148</v>
+        <v>29.7355658777153</v>
       </c>
       <c r="T45" t="n">
-        <v>42.53019299377148</v>
+        <v>29.7355658777153</v>
       </c>
       <c r="U45" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="V45" t="n">
-        <v>42.53019299377148</v>
+        <v>42.53019299377146</v>
       </c>
       <c r="W45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="X45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="C46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="D46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="E46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="F46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="G46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="H46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="I46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="J46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="K46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="L46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="M46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="N46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="O46" t="n">
-        <v>25.81145241921438</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="P46" t="n">
-        <v>79.19945679211186</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.19945679211186</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="R46" t="n">
-        <v>79.19945679211186</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="S46" t="n">
-        <v>79.19945679211186</v>
+        <v>105.2679821685485</v>
       </c>
       <c r="T46" t="n">
         <v>105.2679821685485</v>
@@ -7843,13 +7843,13 @@
         <v>66.37476219813888</v>
       </c>
       <c r="W46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="X46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.81145241921438</v>
+        <v>25.81145241921437</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.98446816784193</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>262.3999942066843</v>
+        <v>269.6236305455424</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>254.1256333135776</v>
+        <v>28.68336417714563</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>21.31919987724175</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>2.649130700799482</v>
       </c>
       <c r="Q11" t="n">
         <v>5.209267837803154</v>
@@ -8763,31 +8763,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>125.4007624800794</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.4828566887008</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>107.9685055701644</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>126.1520590778102</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>125.0727358555663</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>105.5572742003498</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>36.55095718950293</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>44.18136140911037</v>
+        <v>2.919046968530779</v>
       </c>
       <c r="M14" t="n">
-        <v>225.3397620903062</v>
+        <v>30.88902646892565</v>
       </c>
       <c r="N14" t="n">
-        <v>28.68336417714563</v>
+        <v>244.5558067218937</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>43.91144514137907</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.209267837803154</v>
+        <v>120.6837689158109</v>
       </c>
       <c r="R14" t="n">
-        <v>42.58424007769262</v>
+        <v>13.97782059160692</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9000,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>153.7801802275661</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>126.1520590778102</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>125.0727358555663</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9082,19 +9082,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>16.13156153999787</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
         <v>105.6509998050918</v>
@@ -9103,7 +9103,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>246.758517458259</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>63.31363656528336</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9954,16 +9954,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>135.7146581604787</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>125.4007624800794</v>
       </c>
       <c r="M27" t="n">
-        <v>36.33700343600261</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>107.9685055701644</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>125.0727358555663</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10033,10 +10033,10 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>16.97268185753188</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M28" t="n">
         <v>115.6742602693208</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.5746066315038</v>
+        <v>94.08081336005864</v>
       </c>
       <c r="K29" t="n">
         <v>210.0462273461148</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>35.04821316988063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>125.0727358555663</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10267,16 +10267,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>16.97268185753188</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>111.3378805152112</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O32" t="n">
-        <v>246.758517458259</v>
+        <v>203.7416683765183</v>
       </c>
       <c r="P32" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>85.28653679932098</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>122.4828566887008</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>32.74821380241247</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
         <v>105.2836065989273</v>
@@ -10519,13 +10519,13 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>51.49119571432863</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
@@ -10592,10 +10592,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>167.1116786190245</v>
+        <v>287.5591059967578</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10662,13 +10662,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>125.4007624800794</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10741,22 +10741,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>16.52635457269157</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>228.3613161049628</v>
+        <v>230.1990570426544</v>
       </c>
       <c r="M38" t="n">
-        <v>186.4609451465819</v>
+        <v>287.5591059967575</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10844,7 +10844,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,10 +10984,10 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -10996,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>228.3613161049628</v>
       </c>
       <c r="M41" t="n">
-        <v>291.2847697033555</v>
+        <v>287.5591059967575</v>
       </c>
       <c r="N41" t="n">
-        <v>20.36112443500522</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>126.1520590778102</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>14.0878851918182</v>
       </c>
       <c r="K43" t="n">
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11300,25 +11300,25 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>77.44893673188098</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>163.53895022375</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>122.4828566887008</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>125.0727358555663</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,16 +11452,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>111.3378805152112</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.6449712414013</v>
+        <v>107.3826568008217</v>
       </c>
       <c r="C11" t="n">
-        <v>83.50091380416723</v>
+        <v>124.7632282447468</v>
       </c>
       <c r="D11" t="n">
         <v>112.3298905057953</v>
       </c>
       <c r="E11" t="n">
-        <v>104.7743284846246</v>
+        <v>146.0366429252041</v>
       </c>
       <c r="F11" t="n">
         <v>177.7569805035815</v>
       </c>
       <c r="G11" t="n">
-        <v>152.1647008300161</v>
+        <v>193.4270152705956</v>
       </c>
       <c r="H11" t="n">
         <v>121.8977495518662</v>
@@ -23315,16 +23315,16 @@
         <v>24.71076127176806</v>
       </c>
       <c r="V11" t="n">
-        <v>95.43751447272001</v>
+        <v>54.17520003214042</v>
       </c>
       <c r="W11" t="n">
-        <v>76.11034813007241</v>
+        <v>112.4541946893349</v>
       </c>
       <c r="X11" t="n">
-        <v>134.3404451582741</v>
+        <v>97.99659859901162</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.8432982820179</v>
+        <v>115.5809838414383</v>
       </c>
     </row>
     <row r="12">
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.95273460189394</v>
+        <v>21.95273460189395</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137.011885953907</v>
+        <v>107.3826568008217</v>
       </c>
       <c r="C14" t="n">
-        <v>83.50091380416723</v>
+        <v>124.7632282447468</v>
       </c>
       <c r="D14" t="n">
         <v>112.3298905057953</v>
@@ -23504,10 +23504,10 @@
         <v>146.0366429252041</v>
       </c>
       <c r="F14" t="n">
-        <v>177.7569805035815</v>
+        <v>136.4946660630019</v>
       </c>
       <c r="G14" t="n">
-        <v>152.164700830016</v>
+        <v>152.1647008300161</v>
       </c>
       <c r="H14" t="n">
         <v>121.8977495518662</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.71076127176806</v>
       </c>
       <c r="V14" t="n">
-        <v>54.17520003214042</v>
+        <v>95.43751447272001</v>
       </c>
       <c r="W14" t="n">
         <v>112.4541946893349</v>
@@ -23561,7 +23561,7 @@
         <v>134.3404451582741</v>
       </c>
       <c r="Y14" t="n">
-        <v>156.8432982820179</v>
+        <v>120.4994517227554</v>
       </c>
     </row>
     <row r="15">
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>21.95273460189395</v>
+        <v>21.95273460189394</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.92498224127377</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>11.04323924461926</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>15.23082798966562</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.77467706287433</v>
+        <v>22.77467706287445</v>
       </c>
       <c r="G17" t="n">
-        <v>38.4447118298885</v>
+        <v>45.9387512584604</v>
       </c>
       <c r="H17" t="n">
-        <v>8.177760551738611</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>20.62045615814668</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.860994841310742</v>
+        <v>43.12330928189044</v>
       </c>
     </row>
     <row r="18">
@@ -23969,19 +23969,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>11.04323924461937</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>32.31665392507659</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>59.83483316509489</v>
+        <v>39.84593340497341</v>
       </c>
       <c r="G20" t="n">
-        <v>38.4447118298885</v>
+        <v>79.70702627046821</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.860994841310742</v>
+        <v>1.860994841310855</v>
       </c>
     </row>
     <row r="21">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.8105539808595</v>
+        <v>5.810553980859273</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1383898.97173801</v>
+        <v>1383898.971738011</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1383898.971738011</v>
+        <v>1383898.97173801</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="C2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="D2" t="n">
         <v>264579.5985529379</v>
       </c>
       <c r="E2" t="n">
-        <v>231229.4825076966</v>
+        <v>231229.4825076967</v>
       </c>
       <c r="F2" t="n">
         <v>231229.4825076967</v>
@@ -26332,28 +26332,28 @@
         <v>261952.4868705391</v>
       </c>
       <c r="I2" t="n">
-        <v>264976.8086284978</v>
+        <v>264976.8086284977</v>
       </c>
       <c r="J2" t="n">
+        <v>265115.5646575607</v>
+      </c>
+      <c r="K2" t="n">
         <v>265115.5646575608</v>
       </c>
-      <c r="K2" t="n">
-        <v>265115.5646575609</v>
-      </c>
       <c r="L2" t="n">
-        <v>265115.5646575607</v>
+        <v>265115.5646575608</v>
       </c>
       <c r="M2" t="n">
         <v>265115.5646575608</v>
       </c>
       <c r="N2" t="n">
-        <v>265115.5646575608</v>
+        <v>265115.5646575607</v>
       </c>
       <c r="O2" t="n">
         <v>265115.5646575607</v>
       </c>
       <c r="P2" t="n">
-        <v>265115.5646575608</v>
+        <v>265115.564657561</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90975.99120010204</v>
+        <v>90975.99120010195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8678.107889371639</v>
+        <v>8678.107889371737</v>
       </c>
       <c r="J3" t="n">
-        <v>174682.4932636036</v>
+        <v>174682.4932636037</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90975.99120010211</v>
+        <v>90975.99120010195</v>
       </c>
       <c r="M3" t="n">
-        <v>10343.05397626454</v>
+        <v>10343.05397626463</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>98803.3791501934</v>
+        <v>98803.37915019348</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>412040.3166712945</v>
+        <v>412040.3166712946</v>
       </c>
       <c r="F4" t="n">
         <v>412040.3166712945</v>
       </c>
       <c r="G4" t="n">
-        <v>465965.4154301963</v>
+        <v>465965.4154301962</v>
       </c>
       <c r="H4" t="n">
         <v>465965.4154301962</v>
       </c>
       <c r="I4" t="n">
-        <v>471851.6167293978</v>
+        <v>471851.6167293977</v>
       </c>
       <c r="J4" t="n">
-        <v>482238.021901026</v>
+        <v>482238.0219010261</v>
       </c>
       <c r="K4" t="n">
-        <v>482238.021901026</v>
+        <v>482238.0219010261</v>
       </c>
       <c r="L4" t="n">
         <v>482238.0219010261</v>
@@ -26457,7 +26457,7 @@
         <v>480069.8694231316</v>
       </c>
       <c r="P4" t="n">
-        <v>480069.8694231317</v>
+        <v>480069.8694231316</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>23498.2814298644</v>
       </c>
       <c r="G5" t="n">
-        <v>33058.60718511613</v>
+        <v>33058.60718511612</v>
       </c>
       <c r="H5" t="n">
-        <v>33058.60718511613</v>
+        <v>33058.60718511612</v>
       </c>
       <c r="I5" t="n">
-        <v>35042.76398233709</v>
+        <v>35042.76398233711</v>
       </c>
       <c r="J5" t="n">
-        <v>44105.48150191036</v>
+        <v>44105.48150191038</v>
       </c>
       <c r="K5" t="n">
         <v>44105.48150191036</v>
       </c>
       <c r="L5" t="n">
-        <v>44105.48150191037</v>
+        <v>44105.48150191036</v>
       </c>
       <c r="M5" t="n">
         <v>42683.64553983636</v>
@@ -26509,7 +26509,7 @@
         <v>42683.64553983636</v>
       </c>
       <c r="P5" t="n">
-        <v>42683.64553983636</v>
+        <v>42683.64553983635</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272425.747183942</v>
+        <v>-272430.2135681471</v>
       </c>
       <c r="C6" t="n">
-        <v>-272425.747183942</v>
+        <v>-272430.2135681471</v>
       </c>
       <c r="D6" t="n">
-        <v>-272425.7471839419</v>
+        <v>-272430.2135681471</v>
       </c>
       <c r="E6" t="n">
-        <v>-472046.8305518864</v>
+        <v>-472329.2145698019</v>
       </c>
       <c r="F6" t="n">
-        <v>-204309.1155934623</v>
+        <v>-204591.4996113778</v>
       </c>
       <c r="G6" t="n">
-        <v>-328047.5269448754</v>
+        <v>-328073.8859264337</v>
       </c>
       <c r="H6" t="n">
-        <v>-237071.5357447733</v>
+        <v>-237097.8947263318</v>
       </c>
       <c r="I6" t="n">
-        <v>-250595.6799726087</v>
+        <v>-250596.8362728511</v>
       </c>
       <c r="J6" t="n">
-        <v>-435910.4320089793</v>
+        <v>-435910.4320089794</v>
       </c>
       <c r="K6" t="n">
-        <v>-261227.9387453755</v>
+        <v>-261227.9387453756</v>
       </c>
       <c r="L6" t="n">
-        <v>-352203.929945478</v>
+        <v>-352203.9299454776</v>
       </c>
       <c r="M6" t="n">
-        <v>-267981.0042816718</v>
+        <v>-267981.0042816717</v>
       </c>
       <c r="N6" t="n">
-        <v>-257637.9503054071</v>
+        <v>-257637.9503054073</v>
       </c>
       <c r="O6" t="n">
         <v>-356441.3294556007</v>
       </c>
       <c r="P6" t="n">
-        <v>-257637.9503054073</v>
+        <v>-257637.950305407</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>225.442269136432</v>
       </c>
       <c r="G2" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="H2" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="I2" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="J2" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="K2" t="n">
         <v>237.2242129378693</v>
       </c>
       <c r="L2" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="M2" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="N2" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="O2" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="P2" t="n">
         <v>250.1530304082001</v>
@@ -26808,10 +26808,10 @@
         <v>41.26231444057959</v>
       </c>
       <c r="I4" t="n">
-        <v>73.89647228960858</v>
+        <v>73.89647228960895</v>
       </c>
       <c r="J4" t="n">
-        <v>363.9054696807593</v>
+        <v>363.9054696807598</v>
       </c>
       <c r="K4" t="n">
         <v>363.9054696807593</v>
@@ -26823,13 +26823,13 @@
         <v>322.6431552401797</v>
       </c>
       <c r="N4" t="n">
-        <v>322.6431552401797</v>
+        <v>322.6431552401796</v>
       </c>
       <c r="O4" t="n">
-        <v>322.6431552401797</v>
+        <v>322.6431552401796</v>
       </c>
       <c r="P4" t="n">
-        <v>322.6431552401797</v>
+        <v>322.6431552401796</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>113.7199890001276</v>
+        <v>113.7199890001274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>123.5042239377417</v>
+        <v>123.5042239377418</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>113.7199890001276</v>
+        <v>113.7199890001274</v>
       </c>
       <c r="M2" t="n">
-        <v>12.92881747033067</v>
+        <v>12.92881747033078</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.63415784902899</v>
+        <v>32.63415784902936</v>
       </c>
       <c r="J4" t="n">
-        <v>290.0089973911507</v>
+        <v>290.0089973911508</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>113.7199890001276</v>
+        <v>113.7199890001274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>123.5042239377417</v>
+        <v>123.5042239377418</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28114,7 +28114,7 @@
         <v>225.442269136432</v>
       </c>
       <c r="K11" t="n">
-        <v>206.7464437175134</v>
+        <v>225.442269136432</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,13 +28123,13 @@
         <v>225.442269136432</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>225.442269136432</v>
       </c>
       <c r="O11" t="n">
-        <v>11.93794514534954</v>
+        <v>225.442269136432</v>
       </c>
       <c r="P11" t="n">
-        <v>19.56583694211071</v>
+        <v>225.442269136432</v>
       </c>
       <c r="Q11" t="n">
         <v>225.442269136432</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>218.0128088382453</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>215.8975692718527</v>
+        <v>223.6175997217376</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,37 +28187,37 @@
         <v>125.8962907733218</v>
       </c>
       <c r="I12" t="n">
-        <v>114.4980164636858</v>
+        <v>107.9365323114028</v>
       </c>
       <c r="J12" t="n">
-        <v>135.7548517685763</v>
+        <v>54.04786086799133</v>
       </c>
       <c r="K12" t="n">
-        <v>135.7146581604787</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>125.4007624800794</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>122.4828566887008</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>107.9685055701644</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>126.1520590778102</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>125.0727358555663</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.1243971473301</v>
+        <v>8.994314694499863</v>
       </c>
       <c r="R12" t="n">
         <v>165.2513606065248</v>
       </c>
       <c r="S12" t="n">
-        <v>191.8999851457374</v>
+        <v>225.442269136432</v>
       </c>
       <c r="T12" t="n">
         <v>215.0380190307202</v>
@@ -28251,16 +28251,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>186.4449646912903</v>
       </c>
       <c r="E13" t="n">
-        <v>182.9384556528046</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7147304500512</v>
+        <v>207.3358550103328</v>
       </c>
       <c r="H13" t="n">
         <v>165.9484749400754</v>
@@ -28269,37 +28269,37 @@
         <v>165.2726487020473</v>
       </c>
       <c r="J13" t="n">
-        <v>143.022547428975</v>
+        <v>121.2262630518503</v>
       </c>
       <c r="K13" t="n">
-        <v>170.0098383914628</v>
+        <v>137.8213187545791</v>
       </c>
       <c r="L13" t="n">
-        <v>139.5102284969797</v>
+        <v>34.22662189805239</v>
       </c>
       <c r="M13" t="n">
-        <v>143.0787173167876</v>
+        <v>37.52144311643779</v>
       </c>
       <c r="N13" t="n">
-        <v>129.9936134931706</v>
+        <v>18.6557329779594</v>
       </c>
       <c r="O13" t="n">
-        <v>145.1024335304113</v>
+        <v>39.4514337253195</v>
       </c>
       <c r="P13" t="n">
         <v>60.16645596065716</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.9901221732367</v>
+        <v>128.3855707038742</v>
       </c>
       <c r="R13" t="n">
-        <v>204.0574522125177</v>
+        <v>225.442269136432</v>
       </c>
       <c r="S13" t="n">
         <v>225.442269136432</v>
       </c>
       <c r="T13" t="n">
-        <v>223.8211865936177</v>
+        <v>225.442269136432</v>
       </c>
       <c r="U13" t="n">
         <v>225.442269136432</v>
@@ -28311,10 +28311,10 @@
         <v>225.442269136432</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>225.442269136432</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>225.442269136432</v>
       </c>
     </row>
     <row r="14">
@@ -28348,7 +28348,7 @@
         <v>225.442269136432</v>
       </c>
       <c r="J14" t="n">
-        <v>79.42216391696581</v>
+        <v>225.442269136432</v>
       </c>
       <c r="K14" t="n">
         <v>225.442269136432</v>
@@ -28357,22 +28357,22 @@
         <v>225.442269136432</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>225.442269136432</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>225.442269136432</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>19.56583694211071</v>
+        <v>225.442269136432</v>
       </c>
       <c r="Q14" t="n">
+        <v>109.9677680584242</v>
+      </c>
+      <c r="R14" t="n">
         <v>225.442269136432</v>
-      </c>
-      <c r="R14" t="n">
-        <v>196.8358496503463</v>
       </c>
       <c r="S14" t="n">
         <v>225.442269136432</v>
@@ -28415,25 +28415,25 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>200.0857535605079</v>
       </c>
       <c r="G15" t="n">
-        <v>177.1406683123774</v>
+        <v>148.7612505648906</v>
       </c>
       <c r="H15" t="n">
         <v>125.8962907733218</v>
       </c>
       <c r="I15" t="n">
-        <v>114.4980164636858</v>
+        <v>107.9365323114028</v>
       </c>
       <c r="J15" t="n">
-        <v>177.0171662091558</v>
+        <v>54.04786086799133</v>
       </c>
       <c r="K15" t="n">
-        <v>135.7146581604787</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>125.4007624800794</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>122.4828566887008</v>
@@ -28442,13 +28442,13 @@
         <v>107.9685055701644</v>
       </c>
       <c r="O15" t="n">
-        <v>126.1520590778102</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>125.0727358555663</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.1243971473301</v>
+        <v>8.994314694499863</v>
       </c>
       <c r="R15" t="n">
         <v>165.2513606065248</v>
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>186.4449646912903</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,28 +28497,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7147304500512</v>
+        <v>209.9770448906308</v>
       </c>
       <c r="H16" t="n">
-        <v>198.1369945769591</v>
+        <v>165.9484749400754</v>
       </c>
       <c r="I16" t="n">
-        <v>206.5349631426269</v>
+        <v>165.2726487020473</v>
       </c>
       <c r="J16" t="n">
-        <v>143.022547428975</v>
+        <v>121.2262630518503</v>
       </c>
       <c r="K16" t="n">
         <v>68.65135816324424</v>
       </c>
       <c r="L16" t="n">
-        <v>123.3786669569818</v>
+        <v>180.7725429375593</v>
       </c>
       <c r="M16" t="n">
-        <v>143.0787173167876</v>
+        <v>59.5929766843505</v>
       </c>
       <c r="N16" t="n">
-        <v>129.9936134931706</v>
+        <v>18.6557329779594</v>
       </c>
       <c r="O16" t="n">
         <v>39.4514337253195</v>
@@ -28527,7 +28527,7 @@
         <v>60.16645596065716</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.7278077326571</v>
+        <v>128.3855707038742</v>
       </c>
       <c r="R16" t="n">
         <v>204.0574522125177</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="C17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="D17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="E17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="F17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="G17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="H17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="I17" t="n">
-        <v>281.80434339566</v>
+        <v>242.2091931749018</v>
       </c>
       <c r="J17" t="n">
         <v>188.9967705484696</v>
@@ -28591,19 +28591,19 @@
         <v>220.7309118853553</v>
       </c>
       <c r="L17" t="n">
-        <v>269.6236305455424</v>
+        <v>228.3613161049628</v>
       </c>
       <c r="M17" t="n">
-        <v>256.3312956053576</v>
+        <v>215.0689811647781</v>
       </c>
       <c r="N17" t="n">
         <v>254.1256333135776</v>
       </c>
       <c r="O17" t="n">
-        <v>217.4341481630289</v>
+        <v>238.7468238563797</v>
       </c>
       <c r="P17" t="n">
-        <v>228.0913998372315</v>
+        <v>269.3537142778111</v>
       </c>
       <c r="Q17" t="n">
         <v>230.6515369742352</v>
@@ -28618,19 +28618,19 @@
         <v>222.6020717475888</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1530304082001</v>
+        <v>291.4153448487797</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
     </row>
     <row r="18">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="C20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="D20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="E20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="F20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="G20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="H20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="I20" t="n">
-        <v>281.80434339566</v>
+        <v>283.4715076154814</v>
       </c>
       <c r="J20" t="n">
         <v>188.9967705484696</v>
       </c>
       <c r="K20" t="n">
-        <v>220.7309118853553</v>
+        <v>240.7777932679136</v>
       </c>
       <c r="L20" t="n">
         <v>228.3613161049628</v>
@@ -28834,10 +28834,10 @@
         <v>215.0689811647781</v>
       </c>
       <c r="N20" t="n">
-        <v>212.863318872998</v>
+        <v>254.1256333135776</v>
       </c>
       <c r="O20" t="n">
-        <v>258.6964626036085</v>
+        <v>217.4341481630289</v>
       </c>
       <c r="P20" t="n">
         <v>228.0913998372315</v>
@@ -28852,22 +28852,22 @@
         <v>228.2259465972372</v>
       </c>
       <c r="T20" t="n">
-        <v>263.8643861881684</v>
+        <v>222.6020717475888</v>
       </c>
       <c r="U20" t="n">
         <v>291.4153448487797</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="X20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
     </row>
     <row r="21">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="C23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="D23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="E23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="F23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="G23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="H23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="I23" t="n">
-        <v>242.2091931749018</v>
+        <v>316.1056654645108</v>
       </c>
       <c r="J23" t="n">
         <v>188.9967705484696</v>
       </c>
       <c r="K23" t="n">
-        <v>220.7309118853553</v>
+        <v>291.6416681228588</v>
       </c>
       <c r="L23" t="n">
         <v>228.3613161049628</v>
@@ -29071,7 +29071,7 @@
         <v>215.0689811647781</v>
       </c>
       <c r="N23" t="n">
-        <v>212.863318872998</v>
+        <v>286.759791162607</v>
       </c>
       <c r="O23" t="n">
         <v>217.4341481630289</v>
@@ -29080,31 +29080,31 @@
         <v>228.0913998372315</v>
       </c>
       <c r="Q23" t="n">
-        <v>282.0140243735382</v>
+        <v>230.6515369742352</v>
       </c>
       <c r="R23" t="n">
         <v>239.4200897280389</v>
       </c>
       <c r="S23" t="n">
-        <v>302.1224188868458</v>
+        <v>228.2259465972372</v>
       </c>
       <c r="T23" t="n">
-        <v>296.4985440371974</v>
+        <v>222.6020717475888</v>
       </c>
       <c r="U23" t="n">
-        <v>324.0495026978087</v>
+        <v>324.049502697809</v>
       </c>
       <c r="V23" t="n">
-        <v>339.1622581365596</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>339.1622581365596</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.1622581365596</v>
+        <v>339.1622581365594</v>
       </c>
     </row>
     <row r="24">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="C26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="D26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="E26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="F26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="G26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="H26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="I26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="J26" t="n">
-        <v>79.42216391696581</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="K26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="L26" t="n">
-        <v>233.3300534671053</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="M26" t="n">
-        <v>237.2242129378693</v>
+        <v>83.15981682842309</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="O26" t="n">
-        <v>237.2242129378693</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="R26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="S26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="T26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="U26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="V26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="W26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="X26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="Y26" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>192.7505523107505</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29378,25 +29378,25 @@
         <v>135.7548517685763</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L27" t="n">
-        <v>125.4007624800794</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>86.14585325269815</v>
+        <v>122.4828566887008</v>
       </c>
       <c r="N27" t="n">
-        <v>107.9685055701644</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>126.1520590778102</v>
+        <v>159.7302963119825</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.994314694499863</v>
+        <v>145.1243971473301</v>
       </c>
       <c r="R27" t="n">
         <v>135.7533185687889</v>
@@ -29408,13 +29408,13 @@
         <v>215.0380190307202</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="V27" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="W27" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29451,16 +29451,16 @@
         <v>165.9484749400754</v>
       </c>
       <c r="I28" t="n">
-        <v>165.2726487020473</v>
+        <v>171.1206727664741</v>
       </c>
       <c r="J28" t="n">
         <v>121.2262630518503</v>
       </c>
       <c r="K28" t="n">
-        <v>137.8213187545791</v>
+        <v>68.65135816324424</v>
       </c>
       <c r="L28" t="n">
-        <v>237.2242129378693</v>
+        <v>34.22662189805239</v>
       </c>
       <c r="M28" t="n">
         <v>27.40445704746682</v>
@@ -29475,7 +29475,7 @@
         <v>60.16645596065716</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.3855707038742</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="R28" t="n">
         <v>204.0574522125177</v>
@@ -29487,13 +29487,13 @@
         <v>223.8211865936177</v>
       </c>
       <c r="U28" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="V28" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="W28" t="n">
-        <v>237.2242129378693</v>
+        <v>237.2242129378692</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29533,34 +29533,34 @@
         <v>237.2242129378693</v>
       </c>
       <c r="J29" t="n">
-        <v>79.42216391696581</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="K29" t="n">
+        <v>10.68468453924059</v>
+      </c>
+      <c r="L29" t="n">
         <v>237.2242129378693</v>
       </c>
-      <c r="L29" t="n">
-        <v>136.1383028070098</v>
-      </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="N29" t="n">
         <v>237.2242129378693</v>
       </c>
       <c r="O29" t="n">
-        <v>237.2242129378693</v>
+        <v>169.4136415671788</v>
       </c>
       <c r="P29" t="n">
-        <v>237.2242129378693</v>
+        <v>19.56583694211071</v>
       </c>
       <c r="Q29" t="n">
         <v>237.2242129378693</v>
       </c>
       <c r="R29" t="n">
-        <v>196.8358496503463</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="S29" t="n">
-        <v>237.2242129378693</v>
+        <v>228.2259465972372</v>
       </c>
       <c r="T29" t="n">
         <v>237.2242129378693</v>
@@ -29609,10 +29609,10 @@
         <v>125.8962907733218</v>
       </c>
       <c r="I30" t="n">
-        <v>148.0762536978578</v>
+        <v>107.9365323114028</v>
       </c>
       <c r="J30" t="n">
-        <v>100.7066385986956</v>
+        <v>135.7548517685763</v>
       </c>
       <c r="K30" t="n">
         <v>135.7146581604787</v>
@@ -29624,13 +29624,13 @@
         <v>122.4828566887008</v>
       </c>
       <c r="N30" t="n">
-        <v>107.9685055701644</v>
+        <v>141.5467428043364</v>
       </c>
       <c r="O30" t="n">
         <v>126.1520590778102</v>
       </c>
       <c r="P30" t="n">
-        <v>125.0727358555663</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>8.994314694499863</v>
@@ -29688,34 +29688,34 @@
         <v>165.9484749400754</v>
       </c>
       <c r="I31" t="n">
-        <v>237.2242129378693</v>
+        <v>165.2726487020473</v>
       </c>
       <c r="J31" t="n">
-        <v>143.022547428975</v>
+        <v>121.2262630518503</v>
       </c>
       <c r="K31" t="n">
         <v>68.65135816324424</v>
       </c>
       <c r="L31" t="n">
-        <v>139.5102284969797</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="M31" t="n">
-        <v>27.40445704746682</v>
+        <v>143.0787173167876</v>
       </c>
       <c r="N31" t="n">
         <v>18.6557329779594</v>
       </c>
       <c r="O31" t="n">
-        <v>154.6707748676593</v>
+        <v>145.1024335304113</v>
       </c>
       <c r="P31" t="n">
         <v>147.6507089881558</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.3855707038742</v>
+        <v>170.7278077326571</v>
       </c>
       <c r="R31" t="n">
-        <v>237.2242129378693</v>
+        <v>204.0574522125177</v>
       </c>
       <c r="S31" t="n">
         <v>235.6812510697887</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="C32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="D32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="E32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="F32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="G32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="H32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="I32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="J32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="K32" t="n">
-        <v>10.68468453924059</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="M32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="O32" t="n">
-        <v>173.485685237843</v>
+        <v>13.69247978651068</v>
       </c>
       <c r="P32" t="n">
-        <v>237.2242129378694</v>
+        <v>19.56583694211071</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="R32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="S32" t="n">
-        <v>228.2259465972372</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="T32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="U32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="V32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="W32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="X32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>192.4016763541001</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7612505648906</v>
@@ -29846,34 +29846,34 @@
         <v>125.8962907733218</v>
       </c>
       <c r="I33" t="n">
-        <v>114.4980164636858</v>
+        <v>107.9365323114028</v>
       </c>
       <c r="J33" t="n">
-        <v>54.04786086799133</v>
+        <v>135.7548517685763</v>
       </c>
       <c r="K33" t="n">
-        <v>135.7146581604787</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>125.4007624800794</v>
       </c>
       <c r="M33" t="n">
-        <v>122.4828566887008</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>107.9685055701644</v>
+        <v>141.5467428043364</v>
       </c>
       <c r="O33" t="n">
-        <v>93.40384527539777</v>
+        <v>126.1520590778102</v>
       </c>
       <c r="P33" t="n">
         <v>125.0727358555663</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.994314694499863</v>
+        <v>145.1243971473301</v>
       </c>
       <c r="R33" t="n">
-        <v>165.2513606065248</v>
+        <v>135.7533185687889</v>
       </c>
       <c r="S33" t="n">
         <v>191.8999851457374</v>
@@ -29882,13 +29882,13 @@
         <v>215.0380190307202</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="V33" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="W33" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>181.6619842810462</v>
       </c>
       <c r="G34" t="n">
         <v>168.7147304500512</v>
@@ -29925,13 +29925,13 @@
         <v>165.9484749400754</v>
       </c>
       <c r="I34" t="n">
-        <v>165.2726487020473</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="J34" t="n">
-        <v>158.306319544106</v>
+        <v>121.2262630518503</v>
       </c>
       <c r="K34" t="n">
-        <v>237.2242129378694</v>
+        <v>68.65135816324424</v>
       </c>
       <c r="L34" t="n">
         <v>34.22662189805239</v>
@@ -29943,13 +29943,13 @@
         <v>18.6557329779594</v>
       </c>
       <c r="O34" t="n">
-        <v>145.1024335304113</v>
+        <v>39.4514337253195</v>
       </c>
       <c r="P34" t="n">
         <v>60.16645596065716</v>
       </c>
       <c r="Q34" t="n">
-        <v>170.7278077326571</v>
+        <v>128.3855707038742</v>
       </c>
       <c r="R34" t="n">
         <v>204.0574522125177</v>
@@ -29961,13 +29961,13 @@
         <v>223.8211865936177</v>
       </c>
       <c r="U34" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="V34" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="W34" t="n">
-        <v>237.2242129378694</v>
+        <v>237.2242129378693</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="C35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="D35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="E35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="F35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="G35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="H35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="I35" t="n">
-        <v>250.1530304082</v>
+        <v>242.2091931749018</v>
       </c>
       <c r="J35" t="n">
-        <v>79.42216391696581</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="L35" t="n">
-        <v>250.1530304082</v>
+        <v>194.3136160713201</v>
       </c>
       <c r="M35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="O35" t="n">
-        <v>250.1530304082</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>82.74667401299462</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="R35" t="n">
-        <v>250.1530304082</v>
+        <v>196.8358496503463</v>
       </c>
       <c r="S35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="T35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="V35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="W35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="X35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
     </row>
     <row r="36">
@@ -30086,13 +30086,13 @@
         <v>114.4980164636858</v>
       </c>
       <c r="J36" t="n">
-        <v>54.04786086799133</v>
+        <v>135.7548517685763</v>
       </c>
       <c r="K36" t="n">
-        <v>135.7146581604787</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>125.4007624800794</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>122.4828566887008</v>
@@ -30116,7 +30116,7 @@
         <v>191.8999851457374</v>
       </c>
       <c r="T36" t="n">
-        <v>215.0380190307202</v>
+        <v>231.9256357726971</v>
       </c>
       <c r="U36" t="n">
         <v>237.229164634406</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>240.2719028760025</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>200.6207237352134</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30165,22 +30165,22 @@
         <v>165.2726487020473</v>
       </c>
       <c r="J37" t="n">
-        <v>121.2262630518503</v>
+        <v>223.2816683878983</v>
       </c>
       <c r="K37" t="n">
         <v>137.8213187545791</v>
       </c>
       <c r="L37" t="n">
-        <v>139.5102284969797</v>
+        <v>34.22662189805239</v>
       </c>
       <c r="M37" t="n">
-        <v>143.0787173167876</v>
+        <v>27.40445704746682</v>
       </c>
       <c r="N37" t="n">
-        <v>129.9936134931706</v>
+        <v>18.6557329779594</v>
       </c>
       <c r="O37" t="n">
-        <v>145.1024335304113</v>
+        <v>39.4514337253195</v>
       </c>
       <c r="P37" t="n">
         <v>147.6507089881558</v>
@@ -30189,7 +30189,7 @@
         <v>128.3855707038742</v>
       </c>
       <c r="R37" t="n">
-        <v>250.1530304082</v>
+        <v>204.0574522125177</v>
       </c>
       <c r="S37" t="n">
         <v>235.6812510697887</v>
@@ -30198,13 +30198,13 @@
         <v>223.8211865936177</v>
       </c>
       <c r="U37" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="C38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="D38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="E38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="F38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="G38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="H38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="I38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="J38" t="n">
-        <v>79.42216391696581</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="K38" t="n">
-        <v>204.2045573126638</v>
+        <v>10.68468453924059</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="M38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="N38" t="n">
-        <v>250.1530304082</v>
+        <v>40.08211573296796</v>
       </c>
       <c r="O38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="P38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="R38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="S38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="T38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="V38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="W38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="X38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
     </row>
     <row r="39">
@@ -30320,19 +30320,19 @@
         <v>125.8962907733218</v>
       </c>
       <c r="I39" t="n">
-        <v>107.9365323114028</v>
+        <v>114.4980164636858</v>
       </c>
       <c r="J39" t="n">
         <v>135.7548517685763</v>
       </c>
       <c r="K39" t="n">
-        <v>152.6022749024556</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>122.4828566887008</v>
+        <v>139.3704734306776</v>
       </c>
       <c r="N39" t="n">
         <v>107.9685055701644</v>
@@ -30344,10 +30344,10 @@
         <v>125.0727358555663</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.1243971473301</v>
+        <v>8.994314694499863</v>
       </c>
       <c r="R39" t="n">
-        <v>135.7533185687889</v>
+        <v>165.2513606065248</v>
       </c>
       <c r="S39" t="n">
         <v>191.8999851457374</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30396,7 +30396,7 @@
         <v>168.7147304500512</v>
       </c>
       <c r="H40" t="n">
-        <v>246.2075958989988</v>
+        <v>165.9484749400754</v>
       </c>
       <c r="I40" t="n">
         <v>165.2726487020473</v>
@@ -30408,22 +30408,22 @@
         <v>68.65135816324424</v>
       </c>
       <c r="L40" t="n">
-        <v>34.22662189805239</v>
+        <v>139.5102284969797</v>
       </c>
       <c r="M40" t="n">
-        <v>143.0787173167876</v>
+        <v>27.40445704746682</v>
       </c>
       <c r="N40" t="n">
         <v>129.9936134931706</v>
       </c>
       <c r="O40" t="n">
-        <v>145.1024335304113</v>
+        <v>145.9363318137917</v>
       </c>
       <c r="P40" t="n">
-        <v>60.16645596065716</v>
+        <v>147.6507089881558</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.3855707038742</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="R40" t="n">
         <v>204.0574522125177</v>
@@ -30435,13 +30435,13 @@
         <v>223.8211865936177</v>
       </c>
       <c r="U40" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>250.1530304082</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="C41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="D41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="E41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="F41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="G41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="H41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="I41" t="n">
-        <v>242.2091931749018</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="J41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1530304082001</v>
+        <v>220.7309118853553</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>163.1951206900746</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="N41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="O41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="P41" t="n">
-        <v>250.1530304082001</v>
+        <v>87.89860969829252</v>
       </c>
       <c r="Q41" t="n">
-        <v>93.07142302661693</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="R41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="S41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="T41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="V41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="W41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="X41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7612505648906</v>
+        <v>165.6488673068674</v>
       </c>
       <c r="H42" t="n">
         <v>125.8962907733218</v>
@@ -30569,22 +30569,22 @@
         <v>125.4007624800794</v>
       </c>
       <c r="M42" t="n">
-        <v>139.3704734306776</v>
+        <v>122.4828566887008</v>
       </c>
       <c r="N42" t="n">
         <v>107.9685055701644</v>
       </c>
       <c r="O42" t="n">
-        <v>126.1520590778102</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>125.0727358555663</v>
       </c>
       <c r="Q42" t="n">
-        <v>145.1243971473301</v>
+        <v>8.994314694499863</v>
       </c>
       <c r="R42" t="n">
-        <v>135.7533185687889</v>
+        <v>165.2513606065248</v>
       </c>
       <c r="S42" t="n">
         <v>191.8999851457374</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>250.1530304082001</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30639,25 +30639,25 @@
         <v>165.2726487020473</v>
       </c>
       <c r="J43" t="n">
-        <v>121.2262630518503</v>
+        <v>128.9346622371568</v>
       </c>
       <c r="K43" t="n">
         <v>68.65135816324424</v>
       </c>
       <c r="L43" t="n">
-        <v>142.1892244889208</v>
+        <v>34.22662189805239</v>
       </c>
       <c r="M43" t="n">
-        <v>27.40445704746682</v>
+        <v>143.0787173167876</v>
       </c>
       <c r="N43" t="n">
-        <v>129.9936134931706</v>
+        <v>210.2527344520938</v>
       </c>
       <c r="O43" t="n">
-        <v>39.4514337253195</v>
+        <v>145.1024335304113</v>
       </c>
       <c r="P43" t="n">
-        <v>60.16645596065716</v>
+        <v>147.6507089881558</v>
       </c>
       <c r="Q43" t="n">
         <v>128.3855707038742</v>
@@ -30672,13 +30672,13 @@
         <v>223.8211865936177</v>
       </c>
       <c r="U43" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="V43" t="n">
-        <v>250.1530304082001</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>250.1530304082001</v>
+        <v>250.1530304082002</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,7 +30718,7 @@
         <v>250.1530304082001</v>
       </c>
       <c r="J44" t="n">
-        <v>250.1530304082001</v>
+        <v>79.42216391696581</v>
       </c>
       <c r="K44" t="n">
         <v>250.1530304082001</v>
@@ -30727,22 +30727,22 @@
         <v>250.1530304082001</v>
       </c>
       <c r="M44" t="n">
-        <v>215.0689811647781</v>
+        <v>246.4273667016022</v>
       </c>
       <c r="N44" t="n">
         <v>250.1530304082001</v>
       </c>
       <c r="O44" t="n">
+        <v>68.53721700535195</v>
+      </c>
+      <c r="P44" t="n">
+        <v>19.56583694211071</v>
+      </c>
+      <c r="Q44" t="n">
         <v>250.1530304082001</v>
       </c>
-      <c r="P44" t="n">
-        <v>130.0727094646363</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>93.07142302661693</v>
-      </c>
       <c r="R44" t="n">
-        <v>196.8358496503463</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="S44" t="n">
         <v>250.1530304082001</v>
@@ -30794,19 +30794,19 @@
         <v>125.8962907733218</v>
       </c>
       <c r="I45" t="n">
-        <v>114.4980164636858</v>
+        <v>107.9365323114028</v>
       </c>
       <c r="J45" t="n">
         <v>135.7548517685763</v>
       </c>
       <c r="K45" t="n">
-        <v>152.6022749024555</v>
+        <v>135.7146581604787</v>
       </c>
       <c r="L45" t="n">
         <v>125.4007624800794</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>122.4828566887008</v>
       </c>
       <c r="N45" t="n">
         <v>107.9685055701644</v>
@@ -30815,13 +30815,13 @@
         <v>126.1520590778102</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>125.0727358555663</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.994314694499863</v>
+        <v>145.1243971473301</v>
       </c>
       <c r="R45" t="n">
-        <v>165.2513606065248</v>
+        <v>169.2151115747075</v>
       </c>
       <c r="S45" t="n">
         <v>191.8999851457374</v>
@@ -30830,7 +30830,7 @@
         <v>215.0380190307202</v>
       </c>
       <c r="U45" t="n">
-        <v>237.229164634406</v>
+        <v>250.1530304082001</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30876,28 +30876,28 @@
         <v>165.2726487020473</v>
       </c>
       <c r="J46" t="n">
-        <v>143.022547428975</v>
+        <v>121.2262630518503</v>
       </c>
       <c r="K46" t="n">
-        <v>137.8213187545791</v>
+        <v>68.65135816324424</v>
       </c>
       <c r="L46" t="n">
         <v>139.5102284969797</v>
       </c>
       <c r="M46" t="n">
-        <v>27.40445704746682</v>
+        <v>143.0787173167876</v>
       </c>
       <c r="N46" t="n">
         <v>18.6557329779594</v>
       </c>
       <c r="O46" t="n">
-        <v>145.1024335304113</v>
+        <v>225.3615544893347</v>
       </c>
       <c r="P46" t="n">
-        <v>201.5779861324967</v>
+        <v>147.6507089881558</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.3855707038742</v>
+        <v>170.7278077326571</v>
       </c>
       <c r="R46" t="n">
         <v>204.0574522125177</v>
@@ -30906,7 +30906,7 @@
         <v>235.6812510697887</v>
       </c>
       <c r="T46" t="n">
-        <v>250.1530304082001</v>
+        <v>223.8211865936177</v>
       </c>
       <c r="U46" t="n">
         <v>250.1530304082001</v>
@@ -35410,10 +35410,10 @@
         <v>36.44549858796238</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4.711357251076656</v>
       </c>
       <c r="L11" t="n">
-        <v>34.03867810172147</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="M11" t="n">
         <v>10.37328797165394</v>
@@ -35422,7 +35422,7 @@
         <v>41.26231444057959</v>
       </c>
       <c r="O11" t="n">
-        <v>41.26231444057959</v>
+        <v>29.32732085064482</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35437,7 +35437,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.840197388843182</v>
+        <v>2.840197388843194</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35462,10 +35462,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>28.37941774748673</v>
+        <v>36.09944819737169</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>33.54228399069464</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35547,16 +35547,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="E13" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>38.62112456028154</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>32.18851963688368</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35586,16 +35586,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.38481692391429</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.621082542814355</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -35607,10 +35607,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>3.522813728189476</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.300996322263586</v>
       </c>
     </row>
     <row r="14">
@@ -35644,26 +35644,26 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>36.44549858796238</v>
       </c>
       <c r="K14" t="n">
+        <v>4.711357251076656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>41.26231444057959</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
+        <v>31.69248784889568</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.008120973403074</v>
+      </c>
+      <c r="P14" t="n">
         <v>41.26231444057959</v>
       </c>
-      <c r="M14" t="n">
-        <v>10.27078092552816</v>
-      </c>
-      <c r="N14" t="n">
-        <v>41.26231444057959</v>
-      </c>
-      <c r="O14" t="n">
-        <v>29.32436929523005</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
@@ -35674,7 +35674,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.840197388843194</v>
+        <v>2.840197388843182</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35711,25 +35711,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>28.37941774748673</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>41.26231444057959</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35784,34 +35784,34 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>41.26231444057959</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41.26231444057959</v>
+      </c>
+      <c r="M16" t="n">
         <v>32.18851963688368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41.26231444057959</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35863,7 +35863,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.390098494332278</v>
+        <v>1.390098494332165</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>39.5951502207582</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>41.26231444057959</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>21.31267569335077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>18.28247452740743</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36100,7 +36100,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.390098494332278</v>
+        <v>1.390098494332165</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>39.5951502207582</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>20.04688138255823</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,10 +36130,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>41.26231444057959</v>
       </c>
       <c r="O20" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36148,16 +36148,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.26231444057959</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>41.26231444057959</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>18.28247452740743</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.265794310792558</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -36337,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.390098494332278</v>
+        <v>1.390098494332165</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>73.89647228960895</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>70.91075623750353</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>73.89647228960895</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,25 +36376,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.36248739930299</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89647228960858</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89647228960858</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89647228960858</v>
+        <v>73.89647228960895</v>
       </c>
       <c r="V23" t="n">
-        <v>18.28247452740754</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.265794310792671</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -36592,37 +36592,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>157.8020490209034</v>
       </c>
       <c r="K26" t="n">
-        <v>226.5395283986287</v>
+        <v>226.5395283986286</v>
       </c>
       <c r="L26" t="n">
-        <v>275.6132043908344</v>
+        <v>279.5073638615983</v>
       </c>
       <c r="M26" t="n">
-        <v>313.4400014764467</v>
+        <v>159.3756053670005</v>
       </c>
       <c r="N26" t="n">
-        <v>70.53748814596769</v>
+        <v>307.7617010838369</v>
       </c>
       <c r="O26" t="n">
-        <v>266.5485822330994</v>
+        <v>29.32436929523005</v>
       </c>
       <c r="P26" t="n">
-        <v>217.6583759957586</v>
+        <v>72.44644966592108</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.572675963634126</v>
+        <v>144.1527899112523</v>
       </c>
       <c r="R26" t="n">
-        <v>40.38836328752298</v>
+        <v>40.38836328752289</v>
       </c>
       <c r="S26" t="n">
-        <v>8.99826634063206</v>
+        <v>8.998266340631975</v>
       </c>
       <c r="T26" t="n">
-        <v>14.62214119028046</v>
+        <v>14.62214119028038</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36653,7 +36653,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33.57823723417197</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>33.57823723417224</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.848024064426762</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>114.6866662984215</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>108.838642233995</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,34 +36829,34 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>142.3082557494583</v>
       </c>
       <c r="K29" t="n">
-        <v>226.5395283986287</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>178.4214537307389</v>
+        <v>279.5073638615984</v>
       </c>
       <c r="M29" t="n">
-        <v>76.21578853857743</v>
+        <v>313.4400014764467</v>
       </c>
       <c r="N29" t="n">
         <v>307.761701083837</v>
       </c>
       <c r="O29" t="n">
-        <v>266.5485822330994</v>
+        <v>198.7380108624088</v>
       </c>
       <c r="P29" t="n">
-        <v>217.6583759957586</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>144.1527899112523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.38836328752298</v>
       </c>
       <c r="S29" t="n">
-        <v>8.99826634063206</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>14.62214119028046</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>33.57823723417197</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.95156423582196</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>114.6866662984215</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>9.568341337247968</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.16676072535157</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>157.8020490209036</v>
+        <v>157.8020490209035</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>226.5395283986287</v>
       </c>
       <c r="L32" t="n">
-        <v>42.28315092372907</v>
+        <v>279.5073638615984</v>
       </c>
       <c r="M32" t="n">
-        <v>313.4400014764468</v>
+        <v>313.4400014764467</v>
       </c>
       <c r="N32" t="n">
-        <v>307.7617010838371</v>
+        <v>307.761701083837</v>
       </c>
       <c r="O32" t="n">
-        <v>202.8100545330731</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>217.6583759957587</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.1527899112525</v>
+        <v>91.85921276295511</v>
       </c>
       <c r="R32" t="n">
-        <v>40.38836328752306</v>
+        <v>40.38836328752298</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>8.99826634063206</v>
       </c>
       <c r="T32" t="n">
-        <v>14.62214119028055</v>
+        <v>14.62214119028046</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>33.57823723417172</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>33.57823723417197</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>42.73510206259954</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.95156423582196</v>
       </c>
       <c r="J34" t="n">
-        <v>15.28377211513096</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>99.40289418329029</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.943837233298231</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>112.6474555740591</v>
       </c>
       <c r="K35" t="n">
         <v>239.4683458689595</v>
       </c>
       <c r="L35" t="n">
-        <v>292.4361813319291</v>
+        <v>236.5967669950491</v>
       </c>
       <c r="M35" t="n">
-        <v>202.1957278624465</v>
+        <v>322.6431552401797</v>
       </c>
       <c r="N35" t="n">
-        <v>70.53748814596769</v>
+        <v>37.28971153520202</v>
       </c>
       <c r="O35" t="n">
-        <v>279.4773997034301</v>
+        <v>29.32436929523005</v>
       </c>
       <c r="P35" t="n">
-        <v>63.1808370708839</v>
+        <v>230.5871934660894</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.50149343396488</v>
+        <v>19.50149343396491</v>
       </c>
       <c r="R35" t="n">
-        <v>53.31718075785373</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.92708381096282</v>
+        <v>21.92708381096284</v>
       </c>
       <c r="T35" t="n">
-        <v>27.55095866061122</v>
+        <v>27.55095866061125</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>16.88761674197687</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37427,7 +37427,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.8876167419769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>34.16354276324105</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>80.25912095892332</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.09557819568232</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.943837233298231</v>
+        <v>7.943837233298259</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>61.15625985973044</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>251.9907713458917</v>
       </c>
       <c r="M38" t="n">
-        <v>221.5449943900039</v>
+        <v>322.6431552401796</v>
       </c>
       <c r="N38" t="n">
-        <v>320.6905185541677</v>
+        <v>110.6196038789356</v>
       </c>
       <c r="O38" t="n">
-        <v>279.4773997034301</v>
+        <v>32.71888224517114</v>
       </c>
       <c r="P38" t="n">
-        <v>230.5871934660893</v>
+        <v>230.5871934660894</v>
       </c>
       <c r="Q38" t="n">
         <v>157.0816073815831</v>
       </c>
       <c r="R38" t="n">
-        <v>10.73294068016112</v>
+        <v>53.31718075785376</v>
       </c>
       <c r="S38" t="n">
-        <v>21.92708381096282</v>
+        <v>21.92708381096284</v>
       </c>
       <c r="T38" t="n">
-        <v>27.55095866061122</v>
+        <v>27.55095866061125</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>16.88761674197689</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>16.88761674197687</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.25912095892338</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.8338982833803729</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>79.42522267554293</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.943837233298344</v>
       </c>
       <c r="J41" t="n">
-        <v>170.7308664912343</v>
+        <v>61.15625985973053</v>
       </c>
       <c r="K41" t="n">
-        <v>239.4683458689595</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>239.410909228652</v>
+        <v>322.6431552401796</v>
       </c>
       <c r="N41" t="n">
-        <v>57.65083597020725</v>
+        <v>320.6905185541679</v>
       </c>
       <c r="O41" t="n">
-        <v>279.4773997034301</v>
+        <v>279.4773997034302</v>
       </c>
       <c r="P41" t="n">
-        <v>230.5871934660894</v>
+        <v>68.33277275618181</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>157.0816073815832</v>
       </c>
       <c r="R41" t="n">
-        <v>10.73294068016115</v>
+        <v>10.73294068016123</v>
       </c>
       <c r="S41" t="n">
-        <v>21.92708381096284</v>
+        <v>21.92708381096293</v>
       </c>
       <c r="T41" t="n">
-        <v>27.55095866061125</v>
+        <v>27.55095866061133</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>16.88761674197678</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>16.88761674197687</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.53610974323198</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.678995991941163</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>80.25912095892313</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37971,7 +37971,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.044015223750165</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>7.943837233298259</v>
       </c>
       <c r="J44" t="n">
-        <v>170.7308664912343</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>239.4683458689595</v>
       </c>
       <c r="L44" t="n">
-        <v>99.24065103511826</v>
+        <v>292.4361813319291</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>322.6431552401796</v>
       </c>
       <c r="N44" t="n">
         <v>320.6905185541677</v>
       </c>
       <c r="O44" t="n">
-        <v>279.4773997034301</v>
+        <v>14.642019066073</v>
       </c>
       <c r="P44" t="n">
-        <v>110.5068725225256</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>19.50149343396491</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10.73294068016115</v>
       </c>
       <c r="S44" t="n">
         <v>21.92708381096284</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>16.88761674197687</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.963750968182761</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38126,7 +38126,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>12.9238657737941</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>80.25912095892333</v>
       </c>
       <c r="P46" t="n">
-        <v>53.92727714434089</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>26.33184381458242</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
